--- a/resources/Part_List.xlsx
+++ b/resources/Part_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af5a009db1c29546/Desktop/GITHUB/32-Bit Python Programs/working/new/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_A91264ADDF2F9253385164EA240D2BCF9BFFA4C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A9619FC-1AB8-47D8-853F-D8CBA95020C9}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_A91264ADDF2F9253385164EA240D2BCF9BFFA4C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738A52EA-F03E-4A68-A208-BBD7648D9B22}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2138,19 +2138,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G393"/>
+  <dimension ref="A1:F393"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2163,15 +2163,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2184,15 +2183,14 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>973</v>
+      </c>
       <c r="F2" s="1">
-        <v>973</v>
-      </c>
-      <c r="G2" s="1">
         <v>29.9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2205,15 +2203,14 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>4279</v>
+      </c>
       <c r="F3" s="1">
-        <v>4279</v>
-      </c>
-      <c r="G3" s="1">
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2226,15 +2223,14 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>5738</v>
+      </c>
       <c r="F4" s="1">
-        <v>5738</v>
-      </c>
-      <c r="G4" s="1">
         <v>176.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2247,15 +2243,14 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>5694</v>
+      </c>
       <c r="F5" s="1">
-        <v>5694</v>
-      </c>
-      <c r="G5" s="1">
         <v>174.8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2268,15 +2263,14 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>4327</v>
+      </c>
       <c r="F6" s="1">
-        <v>4327</v>
-      </c>
-      <c r="G6" s="1">
         <v>132.80000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -2289,15 +2283,14 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>879</v>
+      </c>
       <c r="F7" s="1">
-        <v>879</v>
-      </c>
-      <c r="G7" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2310,15 +2303,14 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>674</v>
+      </c>
       <c r="F8" s="1">
-        <v>674</v>
-      </c>
-      <c r="G8" s="1">
         <v>20.7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2331,15 +2323,14 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>776</v>
+      </c>
       <c r="F9" s="1">
-        <v>776</v>
-      </c>
-      <c r="G9" s="1">
         <v>23.8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2352,15 +2343,14 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>781</v>
+      </c>
       <c r="F10" s="1">
-        <v>781</v>
-      </c>
-      <c r="G10" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2373,15 +2363,14 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>979</v>
+      </c>
       <c r="F11" s="1">
-        <v>979</v>
-      </c>
-      <c r="G11" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2394,15 +2383,14 @@
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>4274</v>
+      </c>
       <c r="F12" s="1">
-        <v>4274</v>
-      </c>
-      <c r="G12" s="1">
         <v>131.19999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2415,15 +2403,14 @@
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>5637</v>
+      </c>
       <c r="F13" s="1">
-        <v>5637</v>
-      </c>
-      <c r="G13" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2436,15 +2423,14 @@
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>6771</v>
+      </c>
       <c r="F14" s="1">
-        <v>6771</v>
-      </c>
-      <c r="G14" s="1">
         <v>207.8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -2457,15 +2443,14 @@
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>6772</v>
+      </c>
       <c r="F15" s="1">
-        <v>6772</v>
-      </c>
-      <c r="G15" s="1">
         <v>207.9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2478,15 +2463,14 @@
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>6771</v>
+      </c>
       <c r="F16" s="1">
-        <v>6771</v>
-      </c>
-      <c r="G16" s="1">
         <v>207.8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2499,15 +2483,14 @@
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>6790</v>
+      </c>
       <c r="F17" s="1">
-        <v>6790</v>
-      </c>
-      <c r="G17" s="1">
         <v>208.4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2520,15 +2503,14 @@
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>6788</v>
+      </c>
       <c r="F18" s="1">
-        <v>6788</v>
-      </c>
-      <c r="G18" s="1">
         <v>208.3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2541,15 +2523,14 @@
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>6784</v>
+      </c>
       <c r="F19" s="1">
-        <v>6784</v>
-      </c>
-      <c r="G19" s="1">
         <v>208.2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2562,15 +2543,14 @@
       <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>6805</v>
+      </c>
       <c r="F20" s="1">
-        <v>6805</v>
-      </c>
-      <c r="G20" s="1">
         <v>208.9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2583,15 +2563,14 @@
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>6755</v>
+      </c>
       <c r="F21" s="1">
-        <v>6755</v>
-      </c>
-      <c r="G21" s="1">
         <v>207.3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2604,15 +2583,14 @@
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>6779</v>
+      </c>
       <c r="F22" s="1">
-        <v>6779</v>
-      </c>
-      <c r="G22" s="1">
         <v>208.1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,15 +2603,14 @@
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>6778</v>
+      </c>
       <c r="F23" s="1">
-        <v>6778</v>
-      </c>
-      <c r="G23" s="1">
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2646,15 +2623,14 @@
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>6791</v>
+      </c>
       <c r="F24" s="1">
-        <v>6791</v>
-      </c>
-      <c r="G24" s="1">
         <v>208.4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -2667,15 +2643,14 @@
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>5815</v>
+      </c>
       <c r="F25" s="1">
-        <v>5815</v>
-      </c>
-      <c r="G25" s="1">
         <v>178.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -2688,15 +2663,14 @@
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>4310</v>
+      </c>
       <c r="F26" s="1">
-        <v>4310</v>
-      </c>
-      <c r="G26" s="1">
         <v>132.30000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -2709,15 +2683,14 @@
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>900</v>
+      </c>
       <c r="F27" s="1">
-        <v>900</v>
-      </c>
-      <c r="G27" s="1">
         <v>27.6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -2730,15 +2703,14 @@
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>683</v>
+      </c>
       <c r="F28" s="1">
-        <v>683</v>
-      </c>
-      <c r="G28" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -2751,15 +2723,14 @@
       <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>6777</v>
+      </c>
       <c r="F29" s="1">
-        <v>6777</v>
-      </c>
-      <c r="G29" s="1">
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2772,15 +2743,14 @@
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>6801</v>
+      </c>
       <c r="F30" s="1">
-        <v>6801</v>
-      </c>
-      <c r="G30" s="1">
         <v>208.8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2793,15 +2763,14 @@
       <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1">
+        <v>6753</v>
+      </c>
       <c r="F31" s="1">
-        <v>6753</v>
-      </c>
-      <c r="G31" s="1">
         <v>207.3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -2814,15 +2783,14 @@
       <c r="D32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>4220</v>
+      </c>
       <c r="F32" s="1">
-        <v>4220</v>
-      </c>
-      <c r="G32" s="1">
         <v>129.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2835,15 +2803,14 @@
       <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1">
+        <v>4230</v>
+      </c>
       <c r="F33" s="1">
-        <v>4230</v>
-      </c>
-      <c r="G33" s="1">
         <v>129.80000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -2856,15 +2823,14 @@
       <c r="D34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1">
+        <v>4205</v>
+      </c>
       <c r="F34" s="1">
-        <v>4205</v>
-      </c>
-      <c r="G34" s="1">
         <v>129.1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2877,15 +2843,14 @@
       <c r="D35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>4233</v>
+      </c>
       <c r="F35" s="1">
-        <v>4233</v>
-      </c>
-      <c r="G35" s="1">
         <v>129.9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -2898,15 +2863,14 @@
       <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1">
+        <v>5265</v>
+      </c>
       <c r="F36" s="1">
-        <v>5265</v>
-      </c>
-      <c r="G36" s="1">
         <v>161.6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -2919,15 +2883,14 @@
       <c r="D37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1">
+        <v>5279</v>
+      </c>
       <c r="F37" s="1">
-        <v>5279</v>
-      </c>
-      <c r="G37" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -2940,15 +2903,14 @@
       <c r="D38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1">
+        <v>4221</v>
+      </c>
       <c r="F38" s="1">
-        <v>4221</v>
-      </c>
-      <c r="G38" s="1">
         <v>129.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -2961,15 +2923,14 @@
       <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1">
+        <v>4223</v>
+      </c>
       <c r="F39" s="1">
-        <v>4223</v>
-      </c>
-      <c r="G39" s="1">
         <v>129.6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -2982,15 +2943,14 @@
       <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1">
+        <v>4727</v>
+      </c>
       <c r="F40" s="1">
-        <v>4727</v>
-      </c>
-      <c r="G40" s="1">
         <v>145.1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -3003,15 +2963,14 @@
       <c r="D41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1">
+        <v>4794</v>
+      </c>
       <c r="F41" s="1">
-        <v>4794</v>
-      </c>
-      <c r="G41" s="1">
         <v>147.1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -3024,15 +2983,14 @@
       <c r="D42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1">
+        <v>5768</v>
+      </c>
       <c r="F42" s="1">
-        <v>5768</v>
-      </c>
-      <c r="G42" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -3045,15 +3003,14 @@
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1">
+        <v>5213</v>
+      </c>
       <c r="F43" s="1">
-        <v>5213</v>
-      </c>
-      <c r="G43" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -3066,15 +3023,14 @@
       <c r="D44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1">
+        <v>4237</v>
+      </c>
       <c r="F44" s="1">
-        <v>4237</v>
-      </c>
-      <c r="G44" s="1">
         <v>130.1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -3087,15 +3043,14 @@
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1">
+        <v>4225</v>
+      </c>
       <c r="F45" s="1">
-        <v>4225</v>
-      </c>
-      <c r="G45" s="1">
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -3108,15 +3063,14 @@
       <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1">
+        <v>5710</v>
+      </c>
       <c r="F46" s="1">
-        <v>5710</v>
-      </c>
-      <c r="G46" s="1">
         <v>175.3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -3129,15 +3083,14 @@
       <c r="D47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1">
+        <v>5228</v>
+      </c>
       <c r="F47" s="1">
-        <v>5228</v>
-      </c>
-      <c r="G47" s="1">
         <v>160.5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -3150,15 +3103,14 @@
       <c r="D48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1">
+        <v>1303</v>
+      </c>
       <c r="F48" s="1">
-        <v>1303</v>
-      </c>
-      <c r="G48" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -3171,15 +3123,14 @@
       <c r="D49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1">
+        <v>1031</v>
+      </c>
       <c r="F49" s="1">
-        <v>1031</v>
-      </c>
-      <c r="G49" s="1">
         <v>31.6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -3192,15 +3143,14 @@
       <c r="D50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1">
+        <v>1827</v>
+      </c>
       <c r="F50" s="1">
-        <v>1827</v>
-      </c>
-      <c r="G50" s="1">
         <v>56.1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -3213,15 +3163,14 @@
       <c r="D51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1">
+        <v>588</v>
+      </c>
       <c r="F51" s="1">
-        <v>588</v>
-      </c>
-      <c r="G51" s="1">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
@@ -3234,15 +3183,14 @@
       <c r="D52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1">
+        <v>4985</v>
+      </c>
       <c r="F52" s="1">
-        <v>4985</v>
-      </c>
-      <c r="G52" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>59</v>
       </c>
@@ -3255,15 +3203,14 @@
       <c r="D53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1">
+        <v>4982</v>
+      </c>
       <c r="F53" s="1">
-        <v>4982</v>
-      </c>
-      <c r="G53" s="1">
         <v>152.9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,15 +3223,14 @@
       <c r="D54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="1"/>
+      <c r="E54" s="1">
+        <v>4980</v>
+      </c>
       <c r="F54" s="1">
-        <v>4980</v>
-      </c>
-      <c r="G54" s="1">
         <v>152.9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -3297,15 +3243,14 @@
       <c r="D55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1">
+        <v>5488</v>
+      </c>
       <c r="F55" s="1">
-        <v>5488</v>
-      </c>
-      <c r="G55" s="1">
         <v>168.5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
@@ -3318,15 +3263,14 @@
       <c r="D56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1">
+        <v>5486</v>
+      </c>
       <c r="F56" s="1">
-        <v>5486</v>
-      </c>
-      <c r="G56" s="1">
         <v>168.4</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
@@ -3339,15 +3283,14 @@
       <c r="D57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1">
+        <v>5484</v>
+      </c>
       <c r="F57" s="1">
-        <v>5484</v>
-      </c>
-      <c r="G57" s="1">
         <v>168.3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -3360,15 +3303,14 @@
       <c r="D58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1">
+        <v>5481</v>
+      </c>
       <c r="F58" s="1">
-        <v>5481</v>
-      </c>
-      <c r="G58" s="1">
         <v>168.2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
@@ -3381,15 +3323,14 @@
       <c r="D59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1">
+        <v>5476</v>
+      </c>
       <c r="F59" s="1">
-        <v>5476</v>
-      </c>
-      <c r="G59" s="1">
         <v>168.1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
@@ -3402,15 +3343,14 @@
       <c r="D60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="1"/>
+      <c r="E60" s="1">
+        <v>5965</v>
+      </c>
       <c r="F60" s="1">
-        <v>5965</v>
-      </c>
-      <c r="G60" s="1">
         <v>183.1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
@@ -3423,15 +3363,14 @@
       <c r="D61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1">
+        <v>5968</v>
+      </c>
       <c r="F61" s="1">
-        <v>5968</v>
-      </c>
-      <c r="G61" s="1">
         <v>183.2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>68</v>
       </c>
@@ -3444,15 +3383,14 @@
       <c r="D62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="1"/>
+      <c r="E62" s="1">
+        <v>5974</v>
+      </c>
       <c r="F62" s="1">
-        <v>5974</v>
-      </c>
-      <c r="G62" s="1">
         <v>183.4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
@@ -3465,15 +3403,14 @@
       <c r="D63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1">
+        <v>5977</v>
+      </c>
       <c r="F63" s="1">
-        <v>5977</v>
-      </c>
-      <c r="G63" s="1">
         <v>183.4</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>70</v>
       </c>
@@ -3486,15 +3423,14 @@
       <c r="D64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="1"/>
+      <c r="E64" s="1">
+        <v>5982</v>
+      </c>
       <c r="F64" s="1">
-        <v>5982</v>
-      </c>
-      <c r="G64" s="1">
         <v>183.6</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>71</v>
       </c>
@@ -3507,15 +3443,14 @@
       <c r="D65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="1"/>
+      <c r="E65" s="1">
+        <v>5979</v>
+      </c>
       <c r="F65" s="1">
-        <v>5979</v>
-      </c>
-      <c r="G65" s="1">
         <v>183.5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>72</v>
       </c>
@@ -3528,15 +3463,14 @@
       <c r="D66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1">
+        <v>5971</v>
+      </c>
       <c r="F66" s="1">
-        <v>5971</v>
-      </c>
-      <c r="G66" s="1">
         <v>183.3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>73</v>
       </c>
@@ -3549,15 +3483,14 @@
       <c r="D67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1">
+        <v>5475</v>
+      </c>
       <c r="F67" s="1">
-        <v>5475</v>
-      </c>
-      <c r="G67" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>74</v>
       </c>
@@ -3570,15 +3503,14 @@
       <c r="D68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1">
+        <v>5963</v>
+      </c>
       <c r="F68" s="1">
-        <v>5963</v>
-      </c>
-      <c r="G68" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,15 +3523,14 @@
       <c r="D69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1">
+        <v>5485</v>
+      </c>
       <c r="F69" s="1">
-        <v>5485</v>
-      </c>
-      <c r="G69" s="1">
         <v>168.3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>76</v>
       </c>
@@ -3612,15 +3543,14 @@
       <c r="D70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="1"/>
+      <c r="E70" s="1">
+        <v>4996</v>
+      </c>
       <c r="F70" s="1">
-        <v>4996</v>
-      </c>
-      <c r="G70" s="1">
         <v>153.4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>77</v>
       </c>
@@ -3633,15 +3563,14 @@
       <c r="D71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1">
+        <v>807</v>
+      </c>
       <c r="F71" s="1">
-        <v>807</v>
-      </c>
-      <c r="G71" s="1">
         <v>24.8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>78</v>
       </c>
@@ -3654,15 +3583,14 @@
       <c r="D72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="1"/>
+      <c r="E72" s="1">
+        <v>837</v>
+      </c>
       <c r="F72" s="1">
-        <v>837</v>
-      </c>
-      <c r="G72" s="1">
         <v>25.7</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>79</v>
       </c>
@@ -3675,15 +3603,14 @@
       <c r="D73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="1"/>
+      <c r="E73" s="1">
+        <v>829</v>
+      </c>
       <c r="F73" s="1">
-        <v>829</v>
-      </c>
-      <c r="G73" s="1">
         <v>25.4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>80</v>
       </c>
@@ -3696,15 +3623,14 @@
       <c r="D74" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="1"/>
+      <c r="E74" s="1">
+        <v>831</v>
+      </c>
       <c r="F74" s="1">
-        <v>831</v>
-      </c>
-      <c r="G74" s="1">
         <v>25.5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>81</v>
       </c>
@@ -3717,15 +3643,14 @@
       <c r="D75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="1"/>
+      <c r="E75" s="1">
+        <v>834</v>
+      </c>
       <c r="F75" s="1">
-        <v>834</v>
-      </c>
-      <c r="G75" s="1">
         <v>25.6</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>82</v>
       </c>
@@ -3738,15 +3663,14 @@
       <c r="D76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="1"/>
+      <c r="E76" s="1">
+        <v>849</v>
+      </c>
       <c r="F76" s="1">
-        <v>849</v>
-      </c>
-      <c r="G76" s="1">
         <v>26.1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>83</v>
       </c>
@@ -3759,15 +3683,14 @@
       <c r="D77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="1"/>
+      <c r="E77" s="1">
+        <v>848</v>
+      </c>
       <c r="F77" s="1">
-        <v>848</v>
-      </c>
-      <c r="G77" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
@@ -3780,15 +3703,14 @@
       <c r="D78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="1"/>
+      <c r="E78" s="1">
+        <v>856</v>
+      </c>
       <c r="F78" s="1">
-        <v>856</v>
-      </c>
-      <c r="G78" s="1">
         <v>26.3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>85</v>
       </c>
@@ -3801,15 +3723,14 @@
       <c r="D79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1">
+        <v>851</v>
+      </c>
       <c r="F79" s="1">
-        <v>851</v>
-      </c>
-      <c r="G79" s="1">
         <v>26.1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>86</v>
       </c>
@@ -3822,15 +3743,14 @@
       <c r="D80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="1"/>
+      <c r="E80" s="1">
+        <v>735</v>
+      </c>
       <c r="F80" s="1">
-        <v>735</v>
-      </c>
-      <c r="G80" s="1">
         <v>22.6</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>87</v>
       </c>
@@ -3843,15 +3763,14 @@
       <c r="D81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="1"/>
+      <c r="E81" s="1">
+        <v>734</v>
+      </c>
       <c r="F81" s="1">
-        <v>734</v>
-      </c>
-      <c r="G81" s="1">
         <v>22.5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>88</v>
       </c>
@@ -3864,15 +3783,14 @@
       <c r="D82" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="1"/>
+      <c r="E82" s="1">
+        <v>717</v>
+      </c>
       <c r="F82" s="1">
-        <v>717</v>
-      </c>
-      <c r="G82" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>89</v>
       </c>
@@ -3885,15 +3803,14 @@
       <c r="D83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="1"/>
+      <c r="E83" s="1">
+        <v>724</v>
+      </c>
       <c r="F83" s="1">
-        <v>724</v>
-      </c>
-      <c r="G83" s="1">
         <v>22.2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,15 +3823,14 @@
       <c r="D84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="1"/>
+      <c r="E84" s="1">
+        <v>743</v>
+      </c>
       <c r="F84" s="1">
-        <v>743</v>
-      </c>
-      <c r="G84" s="1">
         <v>22.8</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>91</v>
       </c>
@@ -3927,15 +3843,14 @@
       <c r="D85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="1"/>
+      <c r="E85" s="1">
+        <v>1166</v>
+      </c>
       <c r="F85" s="1">
-        <v>1166</v>
-      </c>
-      <c r="G85" s="1">
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>92</v>
       </c>
@@ -3948,15 +3863,14 @@
       <c r="D86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="1"/>
+      <c r="E86" s="1">
+        <v>5221</v>
+      </c>
       <c r="F86" s="1">
-        <v>5221</v>
-      </c>
-      <c r="G86" s="1">
         <v>160.19999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>93</v>
       </c>
@@ -3969,15 +3883,14 @@
       <c r="D87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="1"/>
+      <c r="E87" s="1">
+        <v>5732</v>
+      </c>
       <c r="F87" s="1">
-        <v>5732</v>
-      </c>
-      <c r="G87" s="1">
         <v>175.9</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>94</v>
       </c>
@@ -3990,15 +3903,14 @@
       <c r="D88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="1"/>
+      <c r="E88" s="1">
+        <v>451</v>
+      </c>
       <c r="F88" s="1">
-        <v>451</v>
-      </c>
-      <c r="G88" s="1">
         <v>13.8</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>95</v>
       </c>
@@ -4011,15 +3923,14 @@
       <c r="D89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="1"/>
+      <c r="E89" s="1">
+        <v>462</v>
+      </c>
       <c r="F89" s="1">
-        <v>462</v>
-      </c>
-      <c r="G89" s="1">
         <v>14.2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>96</v>
       </c>
@@ -4032,15 +3943,14 @@
       <c r="D90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="1"/>
+      <c r="E90" s="1">
+        <v>1710</v>
+      </c>
       <c r="F90" s="1">
-        <v>1710</v>
-      </c>
-      <c r="G90" s="1">
         <v>52.5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>97</v>
       </c>
@@ -4053,15 +3963,14 @@
       <c r="D91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1">
+        <v>1502</v>
+      </c>
       <c r="F91" s="1">
-        <v>1502</v>
-      </c>
-      <c r="G91" s="1">
         <v>46.1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>98</v>
       </c>
@@ -4074,15 +3983,14 @@
       <c r="D92" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1">
+        <v>4727</v>
+      </c>
       <c r="F92" s="1">
-        <v>4727</v>
-      </c>
-      <c r="G92" s="1">
         <v>145.1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>99</v>
       </c>
@@ -4095,15 +4003,14 @@
       <c r="D93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1">
+        <v>736</v>
+      </c>
       <c r="F93" s="1">
-        <v>736</v>
-      </c>
-      <c r="G93" s="1">
         <v>22.6</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>100</v>
       </c>
@@ -4116,15 +4023,14 @@
       <c r="D94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1">
+        <v>728</v>
+      </c>
       <c r="F94" s="1">
-        <v>728</v>
-      </c>
-      <c r="G94" s="1">
         <v>22.3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>101</v>
       </c>
@@ -4137,15 +4043,14 @@
       <c r="D95" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1">
+        <v>968</v>
+      </c>
       <c r="F95" s="1">
-        <v>968</v>
-      </c>
-      <c r="G95" s="1">
         <v>29.7</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>102</v>
       </c>
@@ -4158,15 +4063,14 @@
       <c r="D96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="1"/>
+      <c r="E96" s="1">
+        <v>5235</v>
+      </c>
       <c r="F96" s="1">
-        <v>5235</v>
-      </c>
-      <c r="G96" s="1">
         <v>160.69999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>103</v>
       </c>
@@ -4179,15 +4083,14 @@
       <c r="D97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="1"/>
+      <c r="E97" s="1">
+        <v>901</v>
+      </c>
       <c r="F97" s="1">
-        <v>901</v>
-      </c>
-      <c r="G97" s="1">
         <v>27.7</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>104</v>
       </c>
@@ -4200,15 +4103,14 @@
       <c r="D98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="1"/>
+      <c r="E98" s="1">
+        <v>5762</v>
+      </c>
       <c r="F98" s="1">
-        <v>5762</v>
-      </c>
-      <c r="G98" s="1">
         <v>382.2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>106</v>
       </c>
@@ -4221,15 +4123,14 @@
       <c r="D99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="1"/>
+      <c r="E99" s="1">
+        <v>5702</v>
+      </c>
       <c r="F99" s="1">
-        <v>5702</v>
-      </c>
-      <c r="G99" s="1">
         <v>378.2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>107</v>
       </c>
@@ -4242,15 +4143,14 @@
       <c r="D100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="1"/>
+      <c r="E100" s="1">
+        <v>6707</v>
+      </c>
       <c r="F100" s="1">
-        <v>6707</v>
-      </c>
-      <c r="G100" s="1">
         <v>444.9</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>108</v>
       </c>
@@ -4263,15 +4163,14 @@
       <c r="D101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="1"/>
+      <c r="E101" s="1">
+        <v>6718</v>
+      </c>
       <c r="F101" s="1">
-        <v>6718</v>
-      </c>
-      <c r="G101" s="1">
         <v>445.6</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>109</v>
       </c>
@@ -4284,15 +4183,14 @@
       <c r="D102" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1">
+        <v>6717</v>
+      </c>
       <c r="F102" s="1">
-        <v>6717</v>
-      </c>
-      <c r="G102" s="1">
         <v>445.5</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>110</v>
       </c>
@@ -4305,15 +4203,14 @@
       <c r="D103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E103" s="1"/>
+      <c r="E103" s="1">
+        <v>6727</v>
+      </c>
       <c r="F103" s="1">
-        <v>6727</v>
-      </c>
-      <c r="G103" s="1">
         <v>446.2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>111</v>
       </c>
@@ -4326,15 +4223,14 @@
       <c r="D104" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="1"/>
+      <c r="E104" s="1">
+        <v>6726</v>
+      </c>
       <c r="F104" s="1">
-        <v>6726</v>
-      </c>
-      <c r="G104" s="1">
         <v>446.2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>112</v>
       </c>
@@ -4347,15 +4243,14 @@
       <c r="D105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1">
+        <v>6721</v>
+      </c>
       <c r="F105" s="1">
-        <v>6721</v>
-      </c>
-      <c r="G105" s="1">
         <v>445.8</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>113</v>
       </c>
@@ -4368,15 +4263,14 @@
       <c r="D106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="1"/>
+      <c r="E106" s="1">
+        <v>6711</v>
+      </c>
       <c r="F106" s="1">
-        <v>6711</v>
-      </c>
-      <c r="G106" s="1">
         <v>445.1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>114</v>
       </c>
@@ -4389,15 +4283,14 @@
       <c r="D107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1">
+        <v>6709</v>
+      </c>
       <c r="F107" s="1">
-        <v>6709</v>
-      </c>
-      <c r="G107" s="1">
         <v>445</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>115</v>
       </c>
@@ -4410,15 +4303,14 @@
       <c r="D108" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="1"/>
+      <c r="E108" s="1">
+        <v>6709</v>
+      </c>
       <c r="F108" s="1">
-        <v>6709</v>
-      </c>
-      <c r="G108" s="1">
         <v>445</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
@@ -4431,15 +4323,14 @@
       <c r="D109" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="1"/>
+      <c r="E109" s="1">
+        <v>6723</v>
+      </c>
       <c r="F109" s="1">
-        <v>6723</v>
-      </c>
-      <c r="G109" s="1">
         <v>446</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>117</v>
       </c>
@@ -4452,15 +4343,14 @@
       <c r="D110" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E110" s="1"/>
+      <c r="E110" s="1">
+        <v>6723</v>
+      </c>
       <c r="F110" s="1">
-        <v>6723</v>
-      </c>
-      <c r="G110" s="1">
         <v>445.9</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>118</v>
       </c>
@@ -4473,15 +4363,14 @@
       <c r="D111" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="1"/>
+      <c r="E111" s="1">
+        <v>6724</v>
+      </c>
       <c r="F111" s="1">
-        <v>6724</v>
-      </c>
-      <c r="G111" s="1">
         <v>446</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
@@ -4494,15 +4383,14 @@
       <c r="D112" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1">
+        <v>6702</v>
+      </c>
       <c r="F112" s="1">
-        <v>6702</v>
-      </c>
-      <c r="G112" s="1">
         <v>444.5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>120</v>
       </c>
@@ -4515,15 +4403,14 @@
       <c r="D113" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E113" s="1"/>
+      <c r="E113" s="1">
+        <v>6705</v>
+      </c>
       <c r="F113" s="1">
-        <v>6705</v>
-      </c>
-      <c r="G113" s="1">
         <v>444.7</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>121</v>
       </c>
@@ -4536,15 +4423,14 @@
       <c r="D114" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="1"/>
+      <c r="E114" s="1">
+        <v>6713</v>
+      </c>
       <c r="F114" s="1">
-        <v>6713</v>
-      </c>
-      <c r="G114" s="1">
         <v>445.3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -4557,15 +4443,14 @@
       <c r="D115" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E115" s="1"/>
+      <c r="E115" s="1">
+        <v>6993</v>
+      </c>
       <c r="F115" s="1">
-        <v>6993</v>
-      </c>
-      <c r="G115" s="1">
         <v>463.9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>123</v>
       </c>
@@ -4578,15 +4463,14 @@
       <c r="D116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="1"/>
+      <c r="E116" s="1">
+        <v>4224</v>
+      </c>
       <c r="F116" s="1">
-        <v>4224</v>
-      </c>
-      <c r="G116" s="1">
         <v>280.2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>124</v>
       </c>
@@ -4599,15 +4483,14 @@
       <c r="D117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="1"/>
+      <c r="E117" s="1">
+        <v>4226</v>
+      </c>
       <c r="F117" s="1">
-        <v>4226</v>
-      </c>
-      <c r="G117" s="1">
         <v>280.3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>125</v>
       </c>
@@ -4620,15 +4503,14 @@
       <c r="D118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="1"/>
+      <c r="E118" s="1">
+        <v>4227</v>
+      </c>
       <c r="F118" s="1">
-        <v>4227</v>
-      </c>
-      <c r="G118" s="1">
         <v>280.39999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>126</v>
       </c>
@@ -4641,15 +4523,14 @@
       <c r="D119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E119" s="1"/>
+      <c r="E119" s="1">
+        <v>4225</v>
+      </c>
       <c r="F119" s="1">
-        <v>4225</v>
-      </c>
-      <c r="G119" s="1">
         <v>280.3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>127</v>
       </c>
@@ -4662,15 +4543,14 @@
       <c r="D120" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="1"/>
+      <c r="E120" s="1">
+        <v>1077</v>
+      </c>
       <c r="F120" s="1">
-        <v>1077</v>
-      </c>
-      <c r="G120" s="1">
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>128</v>
       </c>
@@ -4683,15 +4563,14 @@
       <c r="D121" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E121" s="1"/>
+      <c r="E121" s="1">
+        <v>4215</v>
+      </c>
       <c r="F121" s="1">
-        <v>4215</v>
-      </c>
-      <c r="G121" s="1">
         <v>279.60000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>129</v>
       </c>
@@ -4704,15 +4583,14 @@
       <c r="D122" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="1"/>
+      <c r="E122" s="1">
+        <v>4210</v>
+      </c>
       <c r="F122" s="1">
-        <v>4210</v>
-      </c>
-      <c r="G122" s="1">
         <v>279.2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>130</v>
       </c>
@@ -4725,15 +4603,14 @@
       <c r="D123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E123" s="1"/>
+      <c r="E123" s="1">
+        <v>591</v>
+      </c>
       <c r="F123" s="1">
-        <v>591</v>
-      </c>
-      <c r="G123" s="1">
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>131</v>
       </c>
@@ -4746,15 +4623,14 @@
       <c r="D124" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="1"/>
+      <c r="E124" s="1">
+        <v>4210</v>
+      </c>
       <c r="F124" s="1">
-        <v>4210</v>
-      </c>
-      <c r="G124" s="1">
         <v>279.3</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>132</v>
       </c>
@@ -4767,15 +4643,14 @@
       <c r="D125" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E125" s="1"/>
+      <c r="E125" s="1">
+        <v>5660</v>
+      </c>
       <c r="F125" s="1">
-        <v>5660</v>
-      </c>
-      <c r="G125" s="1">
         <v>375.4</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>133</v>
       </c>
@@ -4788,15 +4663,14 @@
       <c r="D126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="1"/>
+      <c r="E126" s="1">
+        <v>5614</v>
+      </c>
       <c r="F126" s="1">
-        <v>5614</v>
-      </c>
-      <c r="G126" s="1">
         <v>372.4</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>134</v>
       </c>
@@ -4809,15 +4683,14 @@
       <c r="D127" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E127" s="1"/>
+      <c r="E127" s="1">
+        <v>4246</v>
+      </c>
       <c r="F127" s="1">
-        <v>4246</v>
-      </c>
-      <c r="G127" s="1">
         <v>281.60000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>135</v>
       </c>
@@ -4830,15 +4703,14 @@
       <c r="D128" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E128" s="1"/>
+      <c r="E128" s="1">
+        <v>5661</v>
+      </c>
       <c r="F128" s="1">
-        <v>5661</v>
-      </c>
-      <c r="G128" s="1">
         <v>375.5</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>136</v>
       </c>
@@ -4851,15 +4723,14 @@
       <c r="D129" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="1"/>
+      <c r="E129" s="1">
+        <v>6707</v>
+      </c>
       <c r="F129" s="1">
-        <v>6707</v>
-      </c>
-      <c r="G129" s="1">
         <v>444.9</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>137</v>
       </c>
@@ -4872,15 +4743,14 @@
       <c r="D130" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E130" s="1"/>
+      <c r="E130" s="1">
+        <v>6708</v>
+      </c>
       <c r="F130" s="1">
-        <v>6708</v>
-      </c>
-      <c r="G130" s="1">
         <v>445</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>138</v>
       </c>
@@ -4893,15 +4763,14 @@
       <c r="D131" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E131" s="1"/>
+      <c r="E131" s="1">
+        <v>6707</v>
+      </c>
       <c r="F131" s="1">
-        <v>6707</v>
-      </c>
-      <c r="G131" s="1">
         <v>444.9</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>139</v>
       </c>
@@ -4914,15 +4783,14 @@
       <c r="D132" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E132" s="1"/>
+      <c r="E132" s="1">
+        <v>6708</v>
+      </c>
       <c r="F132" s="1">
-        <v>6708</v>
-      </c>
-      <c r="G132" s="1">
         <v>445</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>140</v>
       </c>
@@ -4935,15 +4803,14 @@
       <c r="D133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E133" s="1"/>
+      <c r="E133" s="1">
+        <v>6713</v>
+      </c>
       <c r="F133" s="1">
-        <v>6713</v>
-      </c>
-      <c r="G133" s="1">
         <v>445.3</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>141</v>
       </c>
@@ -4956,15 +4823,14 @@
       <c r="D134" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E134" s="1"/>
+      <c r="E134" s="1">
+        <v>6702</v>
+      </c>
       <c r="F134" s="1">
-        <v>6702</v>
-      </c>
-      <c r="G134" s="1">
         <v>444.5</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>142</v>
       </c>
@@ -4977,15 +4843,14 @@
       <c r="D135" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E135" s="1"/>
+      <c r="E135" s="1">
+        <v>6703</v>
+      </c>
       <c r="F135" s="1">
-        <v>6703</v>
-      </c>
-      <c r="G135" s="1">
         <v>444.6</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>143</v>
       </c>
@@ -4998,15 +4863,14 @@
       <c r="D136" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E136" s="1"/>
+      <c r="E136" s="1">
+        <v>6704</v>
+      </c>
       <c r="F136" s="1">
-        <v>6704</v>
-      </c>
-      <c r="G136" s="1">
         <v>444.7</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>144</v>
       </c>
@@ -5019,15 +4883,14 @@
       <c r="D137" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E137" s="1"/>
+      <c r="E137" s="1">
+        <v>5466</v>
+      </c>
       <c r="F137" s="1">
-        <v>5466</v>
-      </c>
-      <c r="G137" s="1">
         <v>362.6</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>145</v>
       </c>
@@ -5040,15 +4903,14 @@
       <c r="D138" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E138" s="1"/>
+      <c r="E138" s="1">
+        <v>4194</v>
+      </c>
       <c r="F138" s="1">
-        <v>4194</v>
-      </c>
-      <c r="G138" s="1">
         <v>278.2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>146</v>
       </c>
@@ -5061,15 +4923,14 @@
       <c r="D139" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E139" s="1"/>
+      <c r="E139" s="1">
+        <v>5558</v>
+      </c>
       <c r="F139" s="1">
-        <v>5558</v>
-      </c>
-      <c r="G139" s="1">
         <v>368.7</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>147</v>
       </c>
@@ -5082,15 +4943,14 @@
       <c r="D140" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E140" s="1"/>
+      <c r="E140" s="1">
+        <v>5736</v>
+      </c>
       <c r="F140" s="1">
-        <v>5736</v>
-      </c>
-      <c r="G140" s="1">
         <v>380.5</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>148</v>
       </c>
@@ -5103,15 +4963,14 @@
       <c r="D141" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E141" s="1"/>
+      <c r="E141" s="1">
+        <v>4241</v>
+      </c>
       <c r="F141" s="1">
-        <v>4241</v>
-      </c>
-      <c r="G141" s="1">
         <v>281.3</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>149</v>
       </c>
@@ -5124,15 +4983,14 @@
       <c r="D142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E142" s="1"/>
+      <c r="E142" s="1">
+        <v>5739</v>
+      </c>
       <c r="F142" s="1">
-        <v>5739</v>
-      </c>
-      <c r="G142" s="1">
         <v>380.7</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>150</v>
       </c>
@@ -5145,15 +5003,14 @@
       <c r="D143" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E143" s="1"/>
+      <c r="E143" s="1">
+        <v>6723</v>
+      </c>
       <c r="F143" s="1">
-        <v>6723</v>
-      </c>
-      <c r="G143" s="1">
         <v>445.9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>151</v>
       </c>
@@ -5166,15 +5023,14 @@
       <c r="D144" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E144" s="1"/>
+      <c r="E144" s="1">
+        <v>5951</v>
+      </c>
       <c r="F144" s="1">
-        <v>5951</v>
-      </c>
-      <c r="G144" s="1">
         <v>394.8</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>152</v>
       </c>
@@ -5187,15 +5043,14 @@
       <c r="D145" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E145" s="1"/>
+      <c r="E145" s="1">
+        <v>6711</v>
+      </c>
       <c r="F145" s="1">
-        <v>6711</v>
-      </c>
-      <c r="G145" s="1">
         <v>445.2</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>153</v>
       </c>
@@ -5208,15 +5063,14 @@
       <c r="D146" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E146" s="1"/>
+      <c r="E146" s="1">
+        <v>6707</v>
+      </c>
       <c r="F146" s="1">
-        <v>6707</v>
-      </c>
-      <c r="G146" s="1">
         <v>444.9</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>154</v>
       </c>
@@ -5229,15 +5083,14 @@
       <c r="D147" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="1"/>
+      <c r="E147" s="1">
+        <v>6704</v>
+      </c>
       <c r="F147" s="1">
-        <v>6704</v>
-      </c>
-      <c r="G147" s="1">
         <v>444.7</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>155</v>
       </c>
@@ -5250,15 +5103,14 @@
       <c r="D148" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E148" s="1"/>
+      <c r="E148" s="1">
+        <v>6710</v>
+      </c>
       <c r="F148" s="1">
-        <v>6710</v>
-      </c>
-      <c r="G148" s="1">
         <v>445.1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>156</v>
       </c>
@@ -5271,15 +5123,14 @@
       <c r="D149" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E149" s="1"/>
+      <c r="E149" s="1">
+        <v>1299</v>
+      </c>
       <c r="F149" s="1">
-        <v>1299</v>
-      </c>
-      <c r="G149" s="1">
         <v>29.1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>158</v>
       </c>
@@ -5292,15 +5143,14 @@
       <c r="D150" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E150" s="1"/>
+      <c r="E150" s="1">
+        <v>1221</v>
+      </c>
       <c r="F150" s="1">
-        <v>1221</v>
-      </c>
-      <c r="G150" s="1">
         <v>27.3</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>159</v>
       </c>
@@ -5313,15 +5163,14 @@
       <c r="D151" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E151" s="1"/>
+      <c r="E151" s="1">
+        <v>1182</v>
+      </c>
       <c r="F151" s="1">
-        <v>1182</v>
-      </c>
-      <c r="G151" s="1">
         <v>26.4</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>160</v>
       </c>
@@ -5334,15 +5183,14 @@
       <c r="D152" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E152" s="1"/>
+      <c r="E152" s="1">
+        <v>1184</v>
+      </c>
       <c r="F152" s="1">
-        <v>1184</v>
-      </c>
-      <c r="G152" s="1">
         <v>26.5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>161</v>
       </c>
@@ -5355,15 +5203,14 @@
       <c r="D153" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E153" s="1"/>
+      <c r="E153" s="1">
+        <v>1186</v>
+      </c>
       <c r="F153" s="1">
-        <v>1186</v>
-      </c>
-      <c r="G153" s="1">
         <v>26.5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>162</v>
       </c>
@@ -5376,15 +5223,14 @@
       <c r="D154" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E154" s="1"/>
+      <c r="E154" s="1">
+        <v>1187</v>
+      </c>
       <c r="F154" s="1">
-        <v>1187</v>
-      </c>
-      <c r="G154" s="1">
         <v>26.6</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>163</v>
       </c>
@@ -5397,15 +5243,14 @@
       <c r="D155" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E155" s="1"/>
+      <c r="E155" s="1">
+        <v>1190</v>
+      </c>
       <c r="F155" s="1">
-        <v>1190</v>
-      </c>
-      <c r="G155" s="1">
         <v>26.6</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>164</v>
       </c>
@@ -5418,15 +5263,14 @@
       <c r="D156" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E156" s="1"/>
+      <c r="E156" s="1">
+        <v>1170</v>
+      </c>
       <c r="F156" s="1">
-        <v>1170</v>
-      </c>
-      <c r="G156" s="1">
         <v>26.2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>165</v>
       </c>
@@ -5439,15 +5283,14 @@
       <c r="D157" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E157" s="1"/>
+      <c r="E157" s="1">
+        <v>1158</v>
+      </c>
       <c r="F157" s="1">
-        <v>1158</v>
-      </c>
-      <c r="G157" s="1">
         <v>25.9</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>166</v>
       </c>
@@ -5460,15 +5303,14 @@
       <c r="D158" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E158" s="1"/>
+      <c r="E158" s="1">
+        <v>1145</v>
+      </c>
       <c r="F158" s="1">
-        <v>1145</v>
-      </c>
-      <c r="G158" s="1">
         <v>25.6</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>167</v>
       </c>
@@ -5481,15 +5323,14 @@
       <c r="D159" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E159" s="1"/>
+      <c r="E159" s="1">
+        <v>1133</v>
+      </c>
       <c r="F159" s="1">
-        <v>1133</v>
-      </c>
-      <c r="G159" s="1">
         <v>25.3</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>168</v>
       </c>
@@ -5502,15 +5343,14 @@
       <c r="D160" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E160" s="1"/>
+      <c r="E160" s="1">
+        <v>1127</v>
+      </c>
       <c r="F160" s="1">
-        <v>1127</v>
-      </c>
-      <c r="G160" s="1">
         <v>25.2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>169</v>
       </c>
@@ -5523,15 +5363,14 @@
       <c r="D161" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="1"/>
+      <c r="E161" s="1">
+        <v>4499</v>
+      </c>
       <c r="F161" s="1">
-        <v>4499</v>
-      </c>
-      <c r="G161" s="1">
         <v>100.6</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>170</v>
       </c>
@@ -5544,15 +5383,14 @@
       <c r="D162" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E162" s="1"/>
+      <c r="E162" s="1">
+        <v>1071</v>
+      </c>
       <c r="F162" s="1">
-        <v>1071</v>
-      </c>
-      <c r="G162" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>171</v>
       </c>
@@ -5565,15 +5403,14 @@
       <c r="D163" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E163" s="1"/>
+      <c r="E163" s="1">
+        <v>1072</v>
+      </c>
       <c r="F163" s="1">
-        <v>1072</v>
-      </c>
-      <c r="G163" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>172</v>
       </c>
@@ -5586,15 +5423,14 @@
       <c r="D164" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E164" s="1"/>
+      <c r="E164" s="1">
+        <v>4495</v>
+      </c>
       <c r="F164" s="1">
-        <v>4495</v>
-      </c>
-      <c r="G164" s="1">
         <v>100.6</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>173</v>
       </c>
@@ -5607,15 +5443,14 @@
       <c r="D165" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E165" s="1"/>
+      <c r="E165" s="1">
+        <v>4494</v>
+      </c>
       <c r="F165" s="1">
-        <v>4494</v>
-      </c>
-      <c r="G165" s="1">
         <v>100.5</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>174</v>
       </c>
@@ -5628,15 +5463,14 @@
       <c r="D166" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E166" s="1"/>
+      <c r="E166" s="1">
+        <v>4491</v>
+      </c>
       <c r="F166" s="1">
-        <v>4491</v>
-      </c>
-      <c r="G166" s="1">
         <v>100.5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>175</v>
       </c>
@@ -5649,15 +5483,14 @@
       <c r="D167" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E167" s="1"/>
+      <c r="E167" s="1">
+        <v>4490</v>
+      </c>
       <c r="F167" s="1">
-        <v>4490</v>
-      </c>
-      <c r="G167" s="1">
         <v>100.5</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>176</v>
       </c>
@@ -5670,15 +5503,14 @@
       <c r="D168" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E168" s="1"/>
+      <c r="E168" s="1">
+        <v>4487</v>
+      </c>
       <c r="F168" s="1">
-        <v>4487</v>
-      </c>
-      <c r="G168" s="1">
         <v>100.4</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>177</v>
       </c>
@@ -5691,15 +5523,14 @@
       <c r="D169" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E169" s="1"/>
+      <c r="E169" s="1">
+        <v>4486</v>
+      </c>
       <c r="F169" s="1">
-        <v>4486</v>
-      </c>
-      <c r="G169" s="1">
         <v>100.4</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>178</v>
       </c>
@@ -5712,15 +5543,14 @@
       <c r="D170" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E170" s="1"/>
+      <c r="E170" s="1">
+        <v>4483</v>
+      </c>
       <c r="F170" s="1">
-        <v>4483</v>
-      </c>
-      <c r="G170" s="1">
         <v>100.3</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>179</v>
       </c>
@@ -5733,15 +5563,14 @@
       <c r="D171" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E171" s="1"/>
+      <c r="E171" s="1">
+        <v>4480</v>
+      </c>
       <c r="F171" s="1">
-        <v>4480</v>
-      </c>
-      <c r="G171" s="1">
         <v>100.2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>180</v>
       </c>
@@ -5754,15 +5583,14 @@
       <c r="D172" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E172" s="1"/>
+      <c r="E172" s="1">
+        <v>1067</v>
+      </c>
       <c r="F172" s="1">
-        <v>1067</v>
-      </c>
-      <c r="G172" s="1">
         <v>23.9</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>181</v>
       </c>
@@ -5775,15 +5603,14 @@
       <c r="D173" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E173" s="1"/>
+      <c r="E173" s="1">
+        <v>1070</v>
+      </c>
       <c r="F173" s="1">
-        <v>1070</v>
-      </c>
-      <c r="G173" s="1">
         <v>23.9</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>182</v>
       </c>
@@ -5796,15 +5623,14 @@
       <c r="D174" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E174" s="1"/>
+      <c r="E174" s="1">
+        <v>4476</v>
+      </c>
       <c r="F174" s="1">
-        <v>4476</v>
-      </c>
-      <c r="G174" s="1">
         <v>100.1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>183</v>
       </c>
@@ -5817,15 +5643,14 @@
       <c r="D175" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E175" s="1"/>
+      <c r="E175" s="1">
+        <v>4472</v>
+      </c>
       <c r="F175" s="1">
-        <v>4472</v>
-      </c>
-      <c r="G175" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>184</v>
       </c>
@@ -5838,15 +5663,14 @@
       <c r="D176" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E176" s="1"/>
+      <c r="E176" s="1">
+        <v>1072</v>
+      </c>
       <c r="F176" s="1">
-        <v>1072</v>
-      </c>
-      <c r="G176" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>185</v>
       </c>
@@ -5859,15 +5683,14 @@
       <c r="D177" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E177" s="1"/>
+      <c r="E177" s="1">
+        <v>1077</v>
+      </c>
       <c r="F177" s="1">
-        <v>1077</v>
-      </c>
-      <c r="G177" s="1">
         <v>24.1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>186</v>
       </c>
@@ -5880,15 +5703,14 @@
       <c r="D178" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E178" s="1"/>
+      <c r="E178" s="1">
+        <v>1075</v>
+      </c>
       <c r="F178" s="1">
-        <v>1075</v>
-      </c>
-      <c r="G178" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>187</v>
       </c>
@@ -5901,15 +5723,14 @@
       <c r="D179" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E179" s="1"/>
+      <c r="E179" s="1">
+        <v>1077</v>
+      </c>
       <c r="F179" s="1">
-        <v>1077</v>
-      </c>
-      <c r="G179" s="1">
         <v>24.1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>188</v>
       </c>
@@ -5922,15 +5743,14 @@
       <c r="D180" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E180" s="1"/>
+      <c r="E180" s="1">
+        <v>4501</v>
+      </c>
       <c r="F180" s="1">
-        <v>4501</v>
-      </c>
-      <c r="G180" s="1">
         <v>100.7</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>189</v>
       </c>
@@ -5943,15 +5763,14 @@
       <c r="D181" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E181" s="1"/>
+      <c r="E181" s="1">
+        <v>4499</v>
+      </c>
       <c r="F181" s="1">
-        <v>4499</v>
-      </c>
-      <c r="G181" s="1">
         <v>100.7</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>190</v>
       </c>
@@ -5964,15 +5783,14 @@
       <c r="D182" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E182" s="1"/>
+      <c r="E182" s="1">
+        <v>1065</v>
+      </c>
       <c r="F182" s="1">
-        <v>1065</v>
-      </c>
-      <c r="G182" s="1">
         <v>23.8</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
         <v>191</v>
       </c>
@@ -5985,15 +5803,14 @@
       <c r="D183" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E183" s="1"/>
+      <c r="E183" s="1">
+        <v>1062</v>
+      </c>
       <c r="F183" s="1">
-        <v>1062</v>
-      </c>
-      <c r="G183" s="1">
         <v>23.8</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>192</v>
       </c>
@@ -6006,15 +5823,14 @@
       <c r="D184" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E184" s="1"/>
+      <c r="E184" s="1">
+        <v>1079</v>
+      </c>
       <c r="F184" s="1">
-        <v>1079</v>
-      </c>
-      <c r="G184" s="1">
         <v>24.1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>193</v>
       </c>
@@ -6027,15 +5843,14 @@
       <c r="D185" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E185" s="1"/>
+      <c r="E185" s="1">
+        <v>1060</v>
+      </c>
       <c r="F185" s="1">
-        <v>1060</v>
-      </c>
-      <c r="G185" s="1">
         <v>23.7</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>194</v>
       </c>
@@ -6048,15 +5863,14 @@
       <c r="D186" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E186" s="1"/>
+      <c r="E186" s="1">
+        <v>1396</v>
+      </c>
       <c r="F186" s="1">
-        <v>1396</v>
-      </c>
-      <c r="G186" s="1">
         <v>31.2</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>195</v>
       </c>
@@ -6069,15 +5883,14 @@
       <c r="D187" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E187" s="1"/>
+      <c r="E187" s="1">
+        <v>1352</v>
+      </c>
       <c r="F187" s="1">
-        <v>1352</v>
-      </c>
-      <c r="G187" s="1">
         <v>30.3</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>196</v>
       </c>
@@ -6090,15 +5903,14 @@
       <c r="D188" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E188" s="1"/>
+      <c r="E188" s="1">
+        <v>1294</v>
+      </c>
       <c r="F188" s="1">
-        <v>1294</v>
-      </c>
-      <c r="G188" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>197</v>
       </c>
@@ -6111,15 +5923,14 @@
       <c r="D189" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E189" s="1"/>
+      <c r="E189" s="1">
+        <v>1236</v>
+      </c>
       <c r="F189" s="1">
-        <v>1236</v>
-      </c>
-      <c r="G189" s="1">
         <v>27.6</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
         <v>198</v>
       </c>
@@ -6132,15 +5943,14 @@
       <c r="D190" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E190" s="1"/>
+      <c r="E190" s="1">
+        <v>1177</v>
+      </c>
       <c r="F190" s="1">
-        <v>1177</v>
-      </c>
-      <c r="G190" s="1">
         <v>26.3</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>199</v>
       </c>
@@ -6153,15 +5963,14 @@
       <c r="D191" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E191" s="1"/>
+      <c r="E191" s="1">
+        <v>1119</v>
+      </c>
       <c r="F191" s="1">
-        <v>1119</v>
-      </c>
-      <c r="G191" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
         <v>200</v>
       </c>
@@ -6174,15 +5983,14 @@
       <c r="D192" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E192" s="1"/>
+      <c r="E192" s="1">
+        <v>1048</v>
+      </c>
       <c r="F192" s="1">
-        <v>1048</v>
-      </c>
-      <c r="G192" s="1">
         <v>23.4</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
         <v>201</v>
       </c>
@@ -6195,15 +6003,14 @@
       <c r="D193" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E193" s="1"/>
+      <c r="E193" s="1">
+        <v>994</v>
+      </c>
       <c r="F193" s="1">
-        <v>994</v>
-      </c>
-      <c r="G193" s="1">
         <v>22.2</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>202</v>
       </c>
@@ -6216,15 +6023,14 @@
       <c r="D194" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E194" s="1"/>
+      <c r="E194" s="1">
+        <v>941</v>
+      </c>
       <c r="F194" s="1">
-        <v>941</v>
-      </c>
-      <c r="G194" s="1">
         <v>21.1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
         <v>203</v>
       </c>
@@ -6237,15 +6043,14 @@
       <c r="D195" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E195" s="1"/>
+      <c r="E195" s="1">
+        <v>888</v>
+      </c>
       <c r="F195" s="1">
-        <v>888</v>
-      </c>
-      <c r="G195" s="1">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
         <v>204</v>
       </c>
@@ -6258,15 +6063,14 @@
       <c r="D196" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E196" s="1"/>
+      <c r="E196" s="1">
+        <v>834</v>
+      </c>
       <c r="F196" s="1">
-        <v>834</v>
-      </c>
-      <c r="G196" s="1">
         <v>18.7</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
         <v>205</v>
       </c>
@@ -6279,15 +6083,14 @@
       <c r="D197" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E197" s="1"/>
+      <c r="E197" s="1">
+        <v>781</v>
+      </c>
       <c r="F197" s="1">
-        <v>781</v>
-      </c>
-      <c r="G197" s="1">
         <v>17.5</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
         <v>206</v>
       </c>
@@ -6300,15 +6103,14 @@
       <c r="D198" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E198" s="1"/>
+      <c r="E198" s="1">
+        <v>727</v>
+      </c>
       <c r="F198" s="1">
-        <v>727</v>
-      </c>
-      <c r="G198" s="1">
         <v>16.3</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
         <v>207</v>
       </c>
@@ -6321,15 +6123,14 @@
       <c r="D199" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E199" s="1"/>
+      <c r="E199" s="1">
+        <v>693</v>
+      </c>
       <c r="F199" s="1">
-        <v>693</v>
-      </c>
-      <c r="G199" s="1">
         <v>15.5</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
         <v>208</v>
       </c>
@@ -6342,15 +6143,14 @@
       <c r="D200" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E200" s="1"/>
+      <c r="E200" s="1">
+        <v>690</v>
+      </c>
       <c r="F200" s="1">
-        <v>690</v>
-      </c>
-      <c r="G200" s="1">
         <v>15.4</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
         <v>209</v>
       </c>
@@ -6363,15 +6163,14 @@
       <c r="D201" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E201" s="1"/>
+      <c r="E201" s="1">
+        <v>688</v>
+      </c>
       <c r="F201" s="1">
-        <v>688</v>
-      </c>
-      <c r="G201" s="1">
         <v>15.4</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
         <v>210</v>
       </c>
@@ -6384,15 +6183,14 @@
       <c r="D202" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E202" s="1"/>
+      <c r="E202" s="1">
+        <v>685</v>
+      </c>
       <c r="F202" s="1">
-        <v>685</v>
-      </c>
-      <c r="G202" s="1">
         <v>15.3</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
         <v>211</v>
       </c>
@@ -6405,15 +6203,14 @@
       <c r="D203" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E203" s="1"/>
+      <c r="E203" s="1">
+        <v>682</v>
+      </c>
       <c r="F203" s="1">
-        <v>682</v>
-      </c>
-      <c r="G203" s="1">
         <v>15.3</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
         <v>212</v>
       </c>
@@ -6426,15 +6223,14 @@
       <c r="D204" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E204" s="1"/>
+      <c r="E204" s="1">
+        <v>679</v>
+      </c>
       <c r="F204" s="1">
-        <v>679</v>
-      </c>
-      <c r="G204" s="1">
         <v>15.2</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
         <v>213</v>
       </c>
@@ -6447,15 +6243,14 @@
       <c r="D205" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E205" s="1"/>
+      <c r="E205" s="1">
+        <v>677</v>
+      </c>
       <c r="F205" s="1">
-        <v>677</v>
-      </c>
-      <c r="G205" s="1">
         <v>15.1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
         <v>214</v>
       </c>
@@ -6468,15 +6263,14 @@
       <c r="D206" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E206" s="1"/>
+      <c r="E206" s="1">
+        <v>956</v>
+      </c>
       <c r="F206" s="1">
-        <v>956</v>
-      </c>
-      <c r="G206" s="1">
         <v>21.4</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
         <v>215</v>
       </c>
@@ -6489,15 +6283,14 @@
       <c r="D207" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E207" s="1"/>
+      <c r="E207" s="1">
+        <v>954</v>
+      </c>
       <c r="F207" s="1">
-        <v>954</v>
-      </c>
-      <c r="G207" s="1">
         <v>21.3</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
         <v>216</v>
       </c>
@@ -6510,15 +6303,14 @@
       <c r="D208" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E208" s="1"/>
+      <c r="E208" s="1">
+        <v>952</v>
+      </c>
       <c r="F208" s="1">
-        <v>952</v>
-      </c>
-      <c r="G208" s="1">
         <v>21.3</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
         <v>217</v>
       </c>
@@ -6531,15 +6323,14 @@
       <c r="D209" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E209" s="1"/>
+      <c r="E209" s="1">
+        <v>950</v>
+      </c>
       <c r="F209" s="1">
-        <v>950</v>
-      </c>
-      <c r="G209" s="1">
         <v>21.2</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
         <v>218</v>
       </c>
@@ -6552,15 +6343,14 @@
       <c r="D210" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E210" s="1"/>
+      <c r="E210" s="1">
+        <v>948</v>
+      </c>
       <c r="F210" s="1">
-        <v>948</v>
-      </c>
-      <c r="G210" s="1">
         <v>21.2</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
         <v>219</v>
       </c>
@@ -6573,15 +6363,14 @@
       <c r="D211" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E211" s="1"/>
+      <c r="E211" s="1">
+        <v>946</v>
+      </c>
       <c r="F211" s="1">
-        <v>946</v>
-      </c>
-      <c r="G211" s="1">
         <v>21.2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
         <v>220</v>
       </c>
@@ -6594,15 +6383,14 @@
       <c r="D212" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E212" s="1"/>
+      <c r="E212" s="1">
+        <v>944</v>
+      </c>
       <c r="F212" s="1">
-        <v>944</v>
-      </c>
-      <c r="G212" s="1">
         <v>21.1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
         <v>221</v>
       </c>
@@ -6615,15 +6403,14 @@
       <c r="D213" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E213" s="1"/>
+      <c r="E213" s="1">
+        <v>942</v>
+      </c>
       <c r="F213" s="1">
-        <v>942</v>
-      </c>
-      <c r="G213" s="1">
         <v>21.1</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
         <v>222</v>
       </c>
@@ -6636,15 +6423,14 @@
       <c r="D214" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E214" s="1"/>
+      <c r="E214" s="1">
+        <v>941</v>
+      </c>
       <c r="F214" s="1">
-        <v>941</v>
-      </c>
-      <c r="G214" s="1">
         <v>21.1</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
         <v>223</v>
       </c>
@@ -6657,15 +6443,14 @@
       <c r="D215" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E215" s="1"/>
+      <c r="E215" s="1">
+        <v>4505</v>
+      </c>
       <c r="F215" s="1">
-        <v>4505</v>
-      </c>
-      <c r="G215" s="1">
         <v>100.8</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
         <v>224</v>
       </c>
@@ -6678,15 +6463,14 @@
       <c r="D216" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E216" s="1"/>
+      <c r="E216" s="1">
+        <v>4503</v>
+      </c>
       <c r="F216" s="1">
-        <v>4503</v>
-      </c>
-      <c r="G216" s="1">
         <v>100.7</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
         <v>225</v>
       </c>
@@ -6699,15 +6483,14 @@
       <c r="D217" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E217" s="1"/>
+      <c r="E217" s="1">
+        <v>946</v>
+      </c>
       <c r="F217" s="1">
-        <v>946</v>
-      </c>
-      <c r="G217" s="1">
         <v>21.2</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
         <v>226</v>
       </c>
@@ -6720,15 +6503,14 @@
       <c r="D218" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E218" s="1"/>
+      <c r="E218" s="1">
+        <v>953</v>
+      </c>
       <c r="F218" s="1">
-        <v>953</v>
-      </c>
-      <c r="G218" s="1">
         <v>21.3</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
         <v>227</v>
       </c>
@@ -6741,15 +6523,14 @@
       <c r="D219" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E219" s="1"/>
+      <c r="E219" s="1">
+        <v>930</v>
+      </c>
       <c r="F219" s="1">
-        <v>930</v>
-      </c>
-      <c r="G219" s="1">
         <v>20.8</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
         <v>228</v>
       </c>
@@ -6762,15 +6543,14 @@
       <c r="D220" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E220" s="1"/>
+      <c r="E220" s="1">
+        <v>4485</v>
+      </c>
       <c r="F220" s="1">
-        <v>4485</v>
-      </c>
-      <c r="G220" s="1">
         <v>100.3</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
         <v>229</v>
       </c>
@@ -6783,15 +6563,14 @@
       <c r="D221" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E221" s="1"/>
+      <c r="E221" s="1">
+        <v>958</v>
+      </c>
       <c r="F221" s="1">
-        <v>958</v>
-      </c>
-      <c r="G221" s="1">
         <v>21.4</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
         <v>230</v>
       </c>
@@ -6804,15 +6583,14 @@
       <c r="D222" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E222" s="1"/>
+      <c r="E222" s="1">
+        <v>4481</v>
+      </c>
       <c r="F222" s="1">
-        <v>4481</v>
-      </c>
-      <c r="G222" s="1">
         <v>100.3</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
         <v>231</v>
       </c>
@@ -6825,15 +6603,14 @@
       <c r="D223" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E223" s="1"/>
+      <c r="E223" s="1">
+        <v>960</v>
+      </c>
       <c r="F223" s="1">
-        <v>960</v>
-      </c>
-      <c r="G223" s="1">
         <v>21.5</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
         <v>232</v>
       </c>
@@ -6846,15 +6623,14 @@
       <c r="D224" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E224" s="1"/>
+      <c r="E224" s="1">
+        <v>4477</v>
+      </c>
       <c r="F224" s="1">
-        <v>4477</v>
-      </c>
-      <c r="G224" s="1">
         <v>100.2</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
         <v>233</v>
       </c>
@@ -6867,15 +6643,14 @@
       <c r="D225" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E225" s="1"/>
+      <c r="E225" s="1">
+        <v>962</v>
+      </c>
       <c r="F225" s="1">
-        <v>962</v>
-      </c>
-      <c r="G225" s="1">
         <v>21.5</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
         <v>234</v>
       </c>
@@ -6888,15 +6663,14 @@
       <c r="D226" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E226" s="1"/>
+      <c r="E226" s="1">
+        <v>4473</v>
+      </c>
       <c r="F226" s="1">
-        <v>4473</v>
-      </c>
-      <c r="G226" s="1">
         <v>100.1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
         <v>235</v>
       </c>
@@ -6909,15 +6683,14 @@
       <c r="D227" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E227" s="1"/>
+      <c r="E227" s="1">
+        <v>4487</v>
+      </c>
       <c r="F227" s="1">
-        <v>4487</v>
-      </c>
-      <c r="G227" s="1">
         <v>100.4</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
         <v>236</v>
       </c>
@@ -6930,15 +6703,14 @@
       <c r="D228" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E228" s="1"/>
+      <c r="E228" s="1">
+        <v>964</v>
+      </c>
       <c r="F228" s="1">
-        <v>964</v>
-      </c>
-      <c r="G228" s="1">
         <v>21.6</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
         <v>237</v>
       </c>
@@ -6951,15 +6723,14 @@
       <c r="D229" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E229" s="1"/>
+      <c r="E229" s="1">
+        <v>4470</v>
+      </c>
       <c r="F229" s="1">
-        <v>4470</v>
-      </c>
-      <c r="G229" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
         <v>238</v>
       </c>
@@ -6972,15 +6743,14 @@
       <c r="D230" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E230" s="1"/>
+      <c r="E230" s="1">
+        <v>4212</v>
+      </c>
       <c r="F230" s="1">
-        <v>4212</v>
-      </c>
-      <c r="G230" s="1">
         <v>94.2</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
         <v>239</v>
       </c>
@@ -6993,15 +6763,14 @@
       <c r="D231" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E231" s="1"/>
+      <c r="E231" s="1">
+        <v>4466</v>
+      </c>
       <c r="F231" s="1">
-        <v>4466</v>
-      </c>
-      <c r="G231" s="1">
         <v>99.9</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
         <v>240</v>
       </c>
@@ -7014,15 +6783,14 @@
       <c r="D232" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E232" s="1"/>
+      <c r="E232" s="1">
+        <v>4458</v>
+      </c>
       <c r="F232" s="1">
-        <v>4458</v>
-      </c>
-      <c r="G232" s="1">
         <v>99.7</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
         <v>241</v>
       </c>
@@ -7035,15 +6803,14 @@
       <c r="D233" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E233" s="1"/>
+      <c r="E233" s="1">
+        <v>4453</v>
+      </c>
       <c r="F233" s="1">
-        <v>4453</v>
-      </c>
-      <c r="G233" s="1">
         <v>99.6</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
         <v>242</v>
       </c>
@@ -7056,15 +6823,14 @@
       <c r="D234" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E234" s="1"/>
+      <c r="E234" s="1">
+        <v>4447</v>
+      </c>
       <c r="F234" s="1">
-        <v>4447</v>
-      </c>
-      <c r="G234" s="1">
         <v>99.5</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
         <v>243</v>
       </c>
@@ -7077,15 +6843,14 @@
       <c r="D235" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E235" s="1"/>
+      <c r="E235" s="1">
+        <v>4496</v>
+      </c>
       <c r="F235" s="1">
-        <v>4496</v>
-      </c>
-      <c r="G235" s="1">
         <v>100.6</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
         <v>244</v>
       </c>
@@ -7098,15 +6863,14 @@
       <c r="D236" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E236" s="1"/>
+      <c r="E236" s="1">
+        <v>4457</v>
+      </c>
       <c r="F236" s="1">
-        <v>4457</v>
-      </c>
-      <c r="G236" s="1">
         <v>99.7</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
         <v>245</v>
       </c>
@@ -7119,15 +6883,14 @@
       <c r="D237" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E237" s="1"/>
+      <c r="E237" s="1">
+        <v>4463</v>
+      </c>
       <c r="F237" s="1">
-        <v>4463</v>
-      </c>
-      <c r="G237" s="1">
         <v>99.8</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
         <v>246</v>
       </c>
@@ -7140,15 +6903,14 @@
       <c r="D238" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E238" s="1"/>
+      <c r="E238" s="1">
+        <v>4465</v>
+      </c>
       <c r="F238" s="1">
-        <v>4465</v>
-      </c>
-      <c r="G238" s="1">
         <v>99.9</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
         <v>247</v>
       </c>
@@ -7161,15 +6923,14 @@
       <c r="D239" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E239" s="1"/>
+      <c r="E239" s="1">
+        <v>1033</v>
+      </c>
       <c r="F239" s="1">
-        <v>1033</v>
-      </c>
-      <c r="G239" s="1">
         <v>23.1</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240" s="1" t="s">
         <v>248</v>
       </c>
@@ -7182,15 +6943,14 @@
       <c r="D240" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E240" s="1"/>
+      <c r="E240" s="1">
+        <v>1036</v>
+      </c>
       <c r="F240" s="1">
-        <v>1036</v>
-      </c>
-      <c r="G240" s="1">
         <v>23.2</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241" s="1" t="s">
         <v>249</v>
       </c>
@@ -7203,15 +6963,14 @@
       <c r="D241" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E241" s="1"/>
+      <c r="E241" s="1">
+        <v>1040</v>
+      </c>
       <c r="F241" s="1">
-        <v>1040</v>
-      </c>
-      <c r="G241" s="1">
         <v>23.3</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
         <v>250</v>
       </c>
@@ -7224,15 +6983,14 @@
       <c r="D242" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E242" s="1"/>
+      <c r="E242" s="1">
+        <v>1043</v>
+      </c>
       <c r="F242" s="1">
-        <v>1043</v>
-      </c>
-      <c r="G242" s="1">
         <v>23.3</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
         <v>251</v>
       </c>
@@ -7245,15 +7003,14 @@
       <c r="D243" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E243" s="1"/>
+      <c r="E243" s="1">
+        <v>4468</v>
+      </c>
       <c r="F243" s="1">
-        <v>4468</v>
-      </c>
-      <c r="G243" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244" s="1" t="s">
         <v>252</v>
       </c>
@@ -7266,15 +7023,14 @@
       <c r="D244" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E244" s="1"/>
+      <c r="E244" s="1">
+        <v>1047</v>
+      </c>
       <c r="F244" s="1">
-        <v>1047</v>
-      </c>
-      <c r="G244" s="1">
         <v>23.4</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
         <v>253</v>
       </c>
@@ -7287,15 +7043,14 @@
       <c r="D245" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E245" s="1"/>
+      <c r="E245" s="1">
+        <v>1050</v>
+      </c>
       <c r="F245" s="1">
-        <v>1050</v>
-      </c>
-      <c r="G245" s="1">
         <v>23.5</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246" s="1" t="s">
         <v>254</v>
       </c>
@@ -7308,15 +7063,14 @@
       <c r="D246" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E246" s="1"/>
+      <c r="E246" s="1">
+        <v>1054</v>
+      </c>
       <c r="F246" s="1">
-        <v>1054</v>
-      </c>
-      <c r="G246" s="1">
         <v>23.6</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247" s="1" t="s">
         <v>255</v>
       </c>
@@ -7329,15 +7083,14 @@
       <c r="D247" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E247" s="1"/>
+      <c r="E247" s="1">
+        <v>1053</v>
+      </c>
       <c r="F247" s="1">
-        <v>1053</v>
-      </c>
-      <c r="G247" s="1">
         <v>23.6</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248" s="1" t="s">
         <v>256</v>
       </c>
@@ -7350,15 +7103,14 @@
       <c r="D248" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E248" s="1"/>
+      <c r="E248" s="1">
+        <v>1057</v>
+      </c>
       <c r="F248" s="1">
-        <v>1057</v>
-      </c>
-      <c r="G248" s="1">
         <v>23.6</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
         <v>257</v>
       </c>
@@ -7371,15 +7123,14 @@
       <c r="D249" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E249" s="1"/>
+      <c r="E249" s="1">
+        <v>1059</v>
+      </c>
       <c r="F249" s="1">
-        <v>1059</v>
-      </c>
-      <c r="G249" s="1">
         <v>23.7</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250" s="1" t="s">
         <v>258</v>
       </c>
@@ -7392,15 +7143,14 @@
       <c r="D250" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E250" s="1"/>
+      <c r="E250" s="1">
+        <v>4450</v>
+      </c>
       <c r="F250" s="1">
-        <v>4450</v>
-      </c>
-      <c r="G250" s="1">
         <v>99.6</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
         <v>259</v>
       </c>
@@ -7413,15 +7163,14 @@
       <c r="D251" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E251" s="1"/>
+      <c r="E251" s="1">
+        <v>1753</v>
+      </c>
       <c r="F251" s="1">
-        <v>1753</v>
-      </c>
-      <c r="G251" s="1">
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252" s="1" t="s">
         <v>260</v>
       </c>
@@ -7434,15 +7183,14 @@
       <c r="D252" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E252" s="1"/>
+      <c r="E252" s="1">
+        <v>1792</v>
+      </c>
       <c r="F252" s="1">
-        <v>1792</v>
-      </c>
-      <c r="G252" s="1">
         <v>40.1</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253" s="1" t="s">
         <v>261</v>
       </c>
@@ -7455,15 +7203,14 @@
       <c r="D253" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E253" s="1"/>
+      <c r="E253" s="1">
+        <v>1830</v>
+      </c>
       <c r="F253" s="1">
-        <v>1830</v>
-      </c>
-      <c r="G253" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254" s="1" t="s">
         <v>262</v>
       </c>
@@ -7476,15 +7223,14 @@
       <c r="D254" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E254" s="1"/>
+      <c r="E254" s="1">
+        <v>1869</v>
+      </c>
       <c r="F254" s="1">
-        <v>1869</v>
-      </c>
-      <c r="G254" s="1">
         <v>41.8</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255" s="1" t="s">
         <v>263</v>
       </c>
@@ -7497,15 +7243,14 @@
       <c r="D255" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E255" s="1"/>
+      <c r="E255" s="1">
+        <v>1908</v>
+      </c>
       <c r="F255" s="1">
-        <v>1908</v>
-      </c>
-      <c r="G255" s="1">
         <v>42.7</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
         <v>264</v>
       </c>
@@ -7518,15 +7263,14 @@
       <c r="D256" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E256" s="1"/>
+      <c r="E256" s="1">
+        <v>1928</v>
+      </c>
       <c r="F256" s="1">
-        <v>1928</v>
-      </c>
-      <c r="G256" s="1">
         <v>43.1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
         <v>265</v>
       </c>
@@ -7539,15 +7283,14 @@
       <c r="D257" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E257" s="1"/>
+      <c r="E257" s="1">
+        <v>1686</v>
+      </c>
       <c r="F257" s="1">
-        <v>1686</v>
-      </c>
-      <c r="G257" s="1">
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258" s="1" t="s">
         <v>266</v>
       </c>
@@ -7560,15 +7303,14 @@
       <c r="D258" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E258" s="1"/>
+      <c r="E258" s="1">
+        <v>1609</v>
+      </c>
       <c r="F258" s="1">
-        <v>1609</v>
-      </c>
-      <c r="G258" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259" s="1" t="s">
         <v>267</v>
       </c>
@@ -7581,15 +7323,14 @@
       <c r="D259" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E259" s="1"/>
+      <c r="E259" s="1">
+        <v>1531</v>
+      </c>
       <c r="F259" s="1">
-        <v>1531</v>
-      </c>
-      <c r="G259" s="1">
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260" s="1" t="s">
         <v>268</v>
       </c>
@@ -7602,15 +7343,14 @@
       <c r="D260" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E260" s="1"/>
+      <c r="E260" s="1">
+        <v>1454</v>
+      </c>
       <c r="F260" s="1">
-        <v>1454</v>
-      </c>
-      <c r="G260" s="1">
         <v>32.5</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261" s="1" t="s">
         <v>269</v>
       </c>
@@ -7623,15 +7363,14 @@
       <c r="D261" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E261" s="1"/>
+      <c r="E261" s="1">
+        <v>1376</v>
+      </c>
       <c r="F261" s="1">
-        <v>1376</v>
-      </c>
-      <c r="G261" s="1">
         <v>30.8</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262" s="1" t="s">
         <v>270</v>
       </c>
@@ -7644,15 +7383,14 @@
       <c r="D262" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E262" s="1"/>
+      <c r="E262" s="1">
+        <v>686</v>
+      </c>
       <c r="F262" s="1">
-        <v>686</v>
-      </c>
-      <c r="G262" s="1">
         <v>15.3</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263" s="1" t="s">
         <v>271</v>
       </c>
@@ -7665,15 +7403,14 @@
       <c r="D263" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E263" s="1"/>
+      <c r="E263" s="1">
+        <v>1075</v>
+      </c>
       <c r="F263" s="1">
-        <v>1075</v>
-      </c>
-      <c r="G263" s="1">
         <v>24.1</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264" s="1" t="s">
         <v>272</v>
       </c>
@@ -7686,15 +7423,14 @@
       <c r="D264" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E264" s="1"/>
+      <c r="E264" s="1">
+        <v>1078</v>
+      </c>
       <c r="F264" s="1">
-        <v>1078</v>
-      </c>
-      <c r="G264" s="1">
         <v>24.1</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265" s="1" t="s">
         <v>273</v>
       </c>
@@ -7707,15 +7443,14 @@
       <c r="D265" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E265" s="1"/>
+      <c r="E265" s="1">
+        <v>1073</v>
+      </c>
       <c r="F265" s="1">
-        <v>1073</v>
-      </c>
-      <c r="G265" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266" s="1" t="s">
         <v>274</v>
       </c>
@@ -7728,15 +7463,14 @@
       <c r="D266" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E266" s="1"/>
+      <c r="E266" s="1">
+        <v>4504</v>
+      </c>
       <c r="F266" s="1">
-        <v>4504</v>
-      </c>
-      <c r="G266" s="1">
         <v>100.8</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267" s="1" t="s">
         <v>275</v>
       </c>
@@ -7749,15 +7483,14 @@
       <c r="D267" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E267" s="1"/>
+      <c r="E267" s="1">
+        <v>4503</v>
+      </c>
       <c r="F267" s="1">
-        <v>4503</v>
-      </c>
-      <c r="G267" s="1">
         <v>100.7</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268" s="1" t="s">
         <v>276</v>
       </c>
@@ -7770,15 +7503,14 @@
       <c r="D268" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E268" s="1"/>
+      <c r="E268" s="1">
+        <v>929</v>
+      </c>
       <c r="F268" s="1">
-        <v>929</v>
-      </c>
-      <c r="G268" s="1">
         <v>20.8</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269" s="1" t="s">
         <v>277</v>
       </c>
@@ -7791,15 +7523,14 @@
       <c r="D269" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E269" s="1"/>
+      <c r="E269" s="1">
+        <v>937</v>
+      </c>
       <c r="F269" s="1">
-        <v>937</v>
-      </c>
-      <c r="G269" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
         <v>278</v>
       </c>
@@ -7812,15 +7543,14 @@
       <c r="D270" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E270" s="1"/>
+      <c r="E270" s="1">
+        <v>4507</v>
+      </c>
       <c r="F270" s="1">
-        <v>4507</v>
-      </c>
-      <c r="G270" s="1">
         <v>100.8</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271" s="1" t="s">
         <v>279</v>
       </c>
@@ -7833,15 +7563,14 @@
       <c r="D271" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E271" s="1"/>
+      <c r="E271" s="1">
+        <v>941</v>
+      </c>
       <c r="F271" s="1">
-        <v>941</v>
-      </c>
-      <c r="G271" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
         <v>280</v>
       </c>
@@ -7854,15 +7583,14 @@
       <c r="D272" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E272" s="1"/>
+      <c r="E272" s="1">
+        <v>948</v>
+      </c>
       <c r="F272" s="1">
-        <v>948</v>
-      </c>
-      <c r="G272" s="1">
         <v>21.2</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
         <v>281</v>
       </c>
@@ -7875,15 +7603,14 @@
       <c r="D273" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E273" s="1"/>
+      <c r="E273" s="1">
+        <v>4510</v>
+      </c>
       <c r="F273" s="1">
-        <v>4510</v>
-      </c>
-      <c r="G273" s="1">
         <v>100.9</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274" s="1" t="s">
         <v>282</v>
       </c>
@@ -7896,15 +7623,14 @@
       <c r="D274" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E274" s="1"/>
+      <c r="E274" s="1">
+        <v>956</v>
+      </c>
       <c r="F274" s="1">
-        <v>956</v>
-      </c>
-      <c r="G274" s="1">
         <v>21.4</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
         <v>283</v>
       </c>
@@ -7917,15 +7643,14 @@
       <c r="D275" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E275" s="1"/>
+      <c r="E275" s="1">
+        <v>4496</v>
+      </c>
       <c r="F275" s="1">
-        <v>4496</v>
-      </c>
-      <c r="G275" s="1">
         <v>100.6</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276" s="1" t="s">
         <v>284</v>
       </c>
@@ -7938,15 +7663,14 @@
       <c r="D276" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E276" s="1"/>
+      <c r="E276" s="1">
+        <v>952</v>
+      </c>
       <c r="F276" s="1">
-        <v>952</v>
-      </c>
-      <c r="G276" s="1">
         <v>21.3</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277" s="1" t="s">
         <v>285</v>
       </c>
@@ -7959,15 +7683,14 @@
       <c r="D277" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E277" s="1"/>
+      <c r="E277" s="1">
+        <v>4493</v>
+      </c>
       <c r="F277" s="1">
-        <v>4493</v>
-      </c>
-      <c r="G277" s="1">
         <v>100.5</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
         <v>286</v>
       </c>
@@ -7980,15 +7703,14 @@
       <c r="D278" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E278" s="1"/>
+      <c r="E278" s="1">
+        <v>4490</v>
+      </c>
       <c r="F278" s="1">
-        <v>4490</v>
-      </c>
-      <c r="G278" s="1">
         <v>100.5</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279" s="1" t="s">
         <v>287</v>
       </c>
@@ -8001,15 +7723,14 @@
       <c r="D279" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E279" s="1"/>
+      <c r="E279" s="1">
+        <v>944</v>
+      </c>
       <c r="F279" s="1">
-        <v>944</v>
-      </c>
-      <c r="G279" s="1">
         <v>21.1</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280" s="1" t="s">
         <v>288</v>
       </c>
@@ -8022,15 +7743,14 @@
       <c r="D280" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E280" s="1"/>
+      <c r="E280" s="1">
+        <v>4488</v>
+      </c>
       <c r="F280" s="1">
-        <v>4488</v>
-      </c>
-      <c r="G280" s="1">
         <v>100.4</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281" s="1" t="s">
         <v>289</v>
       </c>
@@ -8043,15 +7763,14 @@
       <c r="D281" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E281" s="1"/>
+      <c r="E281" s="1">
+        <v>4485</v>
+      </c>
       <c r="F281" s="1">
-        <v>4485</v>
-      </c>
-      <c r="G281" s="1">
         <v>100.3</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282" s="1" t="s">
         <v>290</v>
       </c>
@@ -8064,15 +7783,14 @@
       <c r="D282" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E282" s="1"/>
+      <c r="E282" s="1">
+        <v>4482</v>
+      </c>
       <c r="F282" s="1">
-        <v>4482</v>
-      </c>
-      <c r="G282" s="1">
         <v>100.3</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283" s="1" t="s">
         <v>291</v>
       </c>
@@ -8085,15 +7803,14 @@
       <c r="D283" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E283" s="1"/>
+      <c r="E283" s="1">
+        <v>933</v>
+      </c>
       <c r="F283" s="1">
-        <v>933</v>
-      </c>
-      <c r="G283" s="1">
         <v>20.9</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284" s="1" t="s">
         <v>292</v>
       </c>
@@ -8106,15 +7823,14 @@
       <c r="D284" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E284" s="1"/>
+      <c r="E284" s="1">
+        <v>4479</v>
+      </c>
       <c r="F284" s="1">
-        <v>4479</v>
-      </c>
-      <c r="G284" s="1">
         <v>100.2</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285" s="1" t="s">
         <v>293</v>
       </c>
@@ -8127,15 +7843,14 @@
       <c r="D285" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E285" s="1"/>
+      <c r="E285" s="1">
+        <v>4476</v>
+      </c>
       <c r="F285" s="1">
-        <v>4476</v>
-      </c>
-      <c r="G285" s="1">
         <v>100.1</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286" s="1" t="s">
         <v>294</v>
       </c>
@@ -8148,15 +7863,14 @@
       <c r="D286" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E286" s="1"/>
+      <c r="E286" s="1">
+        <v>924</v>
+      </c>
       <c r="F286" s="1">
-        <v>924</v>
-      </c>
-      <c r="G286" s="1">
         <v>20.7</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287" s="1" t="s">
         <v>295</v>
       </c>
@@ -8169,15 +7883,14 @@
       <c r="D287" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E287" s="1"/>
+      <c r="E287" s="1">
+        <v>921</v>
+      </c>
       <c r="F287" s="1">
-        <v>921</v>
-      </c>
-      <c r="G287" s="1">
         <v>20.6</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A288" s="1" t="s">
         <v>296</v>
       </c>
@@ -8190,15 +7903,14 @@
       <c r="D288" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E288" s="1"/>
+      <c r="E288" s="1">
+        <v>918</v>
+      </c>
       <c r="F288" s="1">
-        <v>918</v>
-      </c>
-      <c r="G288" s="1">
         <v>20.5</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A289" s="1" t="s">
         <v>297</v>
       </c>
@@ -8211,15 +7923,14 @@
       <c r="D289" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E289" s="1"/>
+      <c r="E289" s="1">
+        <v>916</v>
+      </c>
       <c r="F289" s="1">
-        <v>916</v>
-      </c>
-      <c r="G289" s="1">
         <v>20.5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A290" s="1" t="s">
         <v>298</v>
       </c>
@@ -8232,15 +7943,14 @@
       <c r="D290" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E290" s="1"/>
+      <c r="E290" s="1">
+        <v>913</v>
+      </c>
       <c r="F290" s="1">
-        <v>913</v>
-      </c>
-      <c r="G290" s="1">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A291" s="1" t="s">
         <v>299</v>
       </c>
@@ -8253,15 +7963,14 @@
       <c r="D291" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E291" s="1"/>
+      <c r="E291" s="1">
+        <v>910</v>
+      </c>
       <c r="F291" s="1">
-        <v>910</v>
-      </c>
-      <c r="G291" s="1">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A292" s="1" t="s">
         <v>300</v>
       </c>
@@ -8274,15 +7983,14 @@
       <c r="D292" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E292" s="1"/>
+      <c r="E292" s="1">
+        <v>907</v>
+      </c>
       <c r="F292" s="1">
-        <v>907</v>
-      </c>
-      <c r="G292" s="1">
         <v>20.3</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A293" s="1" t="s">
         <v>301</v>
       </c>
@@ -8295,15 +8003,14 @@
       <c r="D293" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E293" s="1"/>
+      <c r="E293" s="1">
+        <v>905</v>
+      </c>
       <c r="F293" s="1">
-        <v>905</v>
-      </c>
-      <c r="G293" s="1">
         <v>20.2</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A294" s="1" t="s">
         <v>302</v>
       </c>
@@ -8316,15 +8023,14 @@
       <c r="D294" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E294" s="1"/>
+      <c r="E294" s="1">
+        <v>4500</v>
+      </c>
       <c r="F294" s="1">
-        <v>4500</v>
-      </c>
-      <c r="G294" s="1">
         <v>100.7</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A295" s="1" t="s">
         <v>303</v>
       </c>
@@ -8337,15 +8043,14 @@
       <c r="D295" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E295" s="1"/>
+      <c r="E295" s="1">
+        <v>4227</v>
+      </c>
       <c r="F295" s="1">
-        <v>4227</v>
-      </c>
-      <c r="G295" s="1">
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A296" s="1" t="s">
         <v>304</v>
       </c>
@@ -8358,15 +8063,14 @@
       <c r="D296" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E296" s="1"/>
+      <c r="E296" s="1">
+        <v>4225</v>
+      </c>
       <c r="F296" s="1">
-        <v>4225</v>
-      </c>
-      <c r="G296" s="1">
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A297" s="1" t="s">
         <v>305</v>
       </c>
@@ -8379,15 +8083,14 @@
       <c r="D297" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E297" s="1"/>
+      <c r="E297" s="1">
+        <v>733</v>
+      </c>
       <c r="F297" s="1">
-        <v>733</v>
-      </c>
-      <c r="G297" s="1">
         <v>22.5</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A298" s="1" t="s">
         <v>306</v>
       </c>
@@ -8400,15 +8103,14 @@
       <c r="D298" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E298" s="1"/>
+      <c r="E298" s="1">
+        <v>707</v>
+      </c>
       <c r="F298" s="1">
-        <v>707</v>
-      </c>
-      <c r="G298" s="1">
         <v>21.7</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A299" s="1" t="s">
         <v>307</v>
       </c>
@@ -8421,15 +8123,14 @@
       <c r="D299" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E299" s="1"/>
+      <c r="E299" s="1">
+        <v>2257</v>
+      </c>
       <c r="F299" s="1">
-        <v>2257</v>
-      </c>
-      <c r="G299" s="1">
         <v>95.3</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A300" s="1" t="s">
         <v>309</v>
       </c>
@@ -8442,15 +8143,14 @@
       <c r="D300" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E300" s="1"/>
+      <c r="E300" s="1">
+        <v>2758</v>
+      </c>
       <c r="F300" s="1">
-        <v>2758</v>
-      </c>
-      <c r="G300" s="1">
         <v>116.5</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A301" s="1" t="s">
         <v>310</v>
       </c>
@@ -8463,15 +8163,14 @@
       <c r="D301" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E301" s="1"/>
+      <c r="E301" s="1">
+        <v>2758</v>
+      </c>
       <c r="F301" s="1">
-        <v>2758</v>
-      </c>
-      <c r="G301" s="1">
         <v>116.5</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A302" s="1" t="s">
         <v>311</v>
       </c>
@@ -8484,15 +8183,14 @@
       <c r="D302" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E302" s="1"/>
+      <c r="E302" s="1">
+        <v>2758</v>
+      </c>
       <c r="F302" s="1">
-        <v>2758</v>
-      </c>
-      <c r="G302" s="1">
         <v>116.5</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A303" s="1" t="s">
         <v>312</v>
       </c>
@@ -8505,15 +8203,14 @@
       <c r="D303" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E303" s="1"/>
+      <c r="E303" s="1">
+        <v>2758</v>
+      </c>
       <c r="F303" s="1">
-        <v>2758</v>
-      </c>
-      <c r="G303" s="1">
         <v>116.5</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A304" s="1" t="s">
         <v>313</v>
       </c>
@@ -8526,15 +8223,14 @@
       <c r="D304" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E304" s="1"/>
+      <c r="E304" s="1">
+        <v>2250</v>
+      </c>
       <c r="F304" s="1">
-        <v>2250</v>
-      </c>
-      <c r="G304" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="1" t="s">
         <v>314</v>
       </c>
@@ -8547,15 +8243,14 @@
       <c r="D305" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E305" s="1"/>
+      <c r="E305" s="1">
+        <v>2255</v>
+      </c>
       <c r="F305" s="1">
-        <v>2255</v>
-      </c>
-      <c r="G305" s="1">
         <v>95.2</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="1" t="s">
         <v>315</v>
       </c>
@@ -8568,15 +8263,14 @@
       <c r="D306" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E306" s="1"/>
+      <c r="E306" s="1">
+        <v>2347</v>
+      </c>
       <c r="F306" s="1">
-        <v>2347</v>
-      </c>
-      <c r="G306" s="1">
         <v>99.1</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="1" t="s">
         <v>316</v>
       </c>
@@ -8589,15 +8283,14 @@
       <c r="D307" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E307" s="1"/>
+      <c r="E307" s="1">
+        <v>2268</v>
+      </c>
       <c r="F307" s="1">
-        <v>2268</v>
-      </c>
-      <c r="G307" s="1">
         <v>95.8</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="1" t="s">
         <v>317</v>
       </c>
@@ -8610,15 +8303,14 @@
       <c r="D308" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E308" s="1"/>
+      <c r="E308" s="1">
+        <v>2382</v>
+      </c>
       <c r="F308" s="1">
-        <v>2382</v>
-      </c>
-      <c r="G308" s="1">
         <v>100.6</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="1" t="s">
         <v>318</v>
       </c>
@@ -8631,15 +8323,14 @@
       <c r="D309" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E309" s="1"/>
+      <c r="E309" s="1">
+        <v>2519</v>
+      </c>
       <c r="F309" s="1">
-        <v>2519</v>
-      </c>
-      <c r="G309" s="1">
         <v>106.4</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="1" t="s">
         <v>319</v>
       </c>
@@ -8652,15 +8343,14 @@
       <c r="D310" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E310" s="1"/>
+      <c r="E310" s="1">
+        <v>2675</v>
+      </c>
       <c r="F310" s="1">
-        <v>2675</v>
-      </c>
-      <c r="G310" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="1" t="s">
         <v>320</v>
       </c>
@@ -8673,15 +8363,14 @@
       <c r="D311" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E311" s="1"/>
+      <c r="E311" s="1">
+        <v>2771</v>
+      </c>
       <c r="F311" s="1">
-        <v>2771</v>
-      </c>
-      <c r="G311" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="1" t="s">
         <v>321</v>
       </c>
@@ -8694,15 +8383,14 @@
       <c r="D312" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E312" s="1"/>
+      <c r="E312" s="1">
+        <v>2758</v>
+      </c>
       <c r="F312" s="1">
-        <v>2758</v>
-      </c>
-      <c r="G312" s="1">
         <v>116.5</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="1" t="s">
         <v>322</v>
       </c>
@@ -8715,15 +8403,14 @@
       <c r="D313" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E313" s="1"/>
+      <c r="E313" s="1">
+        <v>2758</v>
+      </c>
       <c r="F313" s="1">
-        <v>2758</v>
-      </c>
-      <c r="G313" s="1">
         <v>116.5</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="1" t="s">
         <v>323</v>
       </c>
@@ -8736,15 +8423,14 @@
       <c r="D314" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E314" s="1"/>
+      <c r="E314" s="1">
+        <v>2758</v>
+      </c>
       <c r="F314" s="1">
-        <v>2758</v>
-      </c>
-      <c r="G314" s="1">
         <v>116.5</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="1" t="s">
         <v>324</v>
       </c>
@@ -8757,15 +8443,14 @@
       <c r="D315" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E315" s="1"/>
+      <c r="E315" s="1">
+        <v>2758</v>
+      </c>
       <c r="F315" s="1">
-        <v>2758</v>
-      </c>
-      <c r="G315" s="1">
         <v>116.5</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="1" t="s">
         <v>325</v>
       </c>
@@ -8778,15 +8463,14 @@
       <c r="D316" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E316" s="1"/>
+      <c r="E316" s="1">
+        <v>2758</v>
+      </c>
       <c r="F316" s="1">
-        <v>2758</v>
-      </c>
-      <c r="G316" s="1">
         <v>116.5</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="1" t="s">
         <v>326</v>
       </c>
@@ -8799,15 +8483,14 @@
       <c r="D317" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E317" s="1"/>
+      <c r="E317" s="1">
+        <v>2758</v>
+      </c>
       <c r="F317" s="1">
-        <v>2758</v>
-      </c>
-      <c r="G317" s="1">
         <v>116.5</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="1" t="s">
         <v>327</v>
       </c>
@@ -8820,15 +8503,14 @@
       <c r="D318" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E318" s="1"/>
+      <c r="E318" s="1">
+        <v>2758</v>
+      </c>
       <c r="F318" s="1">
-        <v>2758</v>
-      </c>
-      <c r="G318" s="1">
         <v>116.5</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="1" t="s">
         <v>328</v>
       </c>
@@ -8841,15 +8523,14 @@
       <c r="D319" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E319" s="1"/>
+      <c r="E319" s="1">
+        <v>2255</v>
+      </c>
       <c r="F319" s="1">
-        <v>2255</v>
-      </c>
-      <c r="G319" s="1">
         <v>95.2</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="1" t="s">
         <v>329</v>
       </c>
@@ -8862,15 +8543,14 @@
       <c r="D320" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E320" s="1"/>
+      <c r="E320" s="1">
+        <v>2250</v>
+      </c>
       <c r="F320" s="1">
-        <v>2250</v>
-      </c>
-      <c r="G320" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="1" t="s">
         <v>330</v>
       </c>
@@ -8883,15 +8563,14 @@
       <c r="D321" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E321" s="1"/>
+      <c r="E321" s="1">
+        <v>2749</v>
+      </c>
       <c r="F321" s="1">
-        <v>2749</v>
-      </c>
-      <c r="G321" s="1">
         <v>116.1</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="1" t="s">
         <v>331</v>
       </c>
@@ -8904,15 +8583,14 @@
       <c r="D322" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E322" s="1"/>
+      <c r="E322" s="1">
+        <v>2627</v>
+      </c>
       <c r="F322" s="1">
-        <v>2627</v>
-      </c>
-      <c r="G322" s="1">
         <v>110.9</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="1" t="s">
         <v>332</v>
       </c>
@@ -8925,15 +8603,14 @@
       <c r="D323" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E323" s="1"/>
+      <c r="E323" s="1">
+        <v>2504</v>
+      </c>
       <c r="F323" s="1">
-        <v>2504</v>
-      </c>
-      <c r="G323" s="1">
         <v>105.8</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="1" t="s">
         <v>333</v>
       </c>
@@ -8946,15 +8623,14 @@
       <c r="D324" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E324" s="1"/>
+      <c r="E324" s="1">
+        <v>2336</v>
+      </c>
       <c r="F324" s="1">
-        <v>2336</v>
-      </c>
-      <c r="G324" s="1">
         <v>98.7</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="1" t="s">
         <v>334</v>
       </c>
@@ -8967,15 +8643,14 @@
       <c r="D325" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E325" s="1"/>
+      <c r="E325" s="1">
+        <v>2211</v>
+      </c>
       <c r="F325" s="1">
-        <v>2211</v>
-      </c>
-      <c r="G325" s="1">
         <v>93.4</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="1" t="s">
         <v>335</v>
       </c>
@@ -8988,15 +8663,14 @@
       <c r="D326" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E326" s="1"/>
+      <c r="E326" s="1">
+        <v>2218</v>
+      </c>
       <c r="F326" s="1">
-        <v>2218</v>
-      </c>
-      <c r="G326" s="1">
         <v>93.7</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="1" t="s">
         <v>336</v>
       </c>
@@ -9009,15 +8683,14 @@
       <c r="D327" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E327" s="1"/>
+      <c r="E327" s="1">
+        <v>2230</v>
+      </c>
       <c r="F327" s="1">
-        <v>2230</v>
-      </c>
-      <c r="G327" s="1">
         <v>94.2</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="1" t="s">
         <v>337</v>
       </c>
@@ -9030,15 +8703,14 @@
       <c r="D328" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E328" s="1"/>
+      <c r="E328" s="1">
+        <v>2240</v>
+      </c>
       <c r="F328" s="1">
-        <v>2240</v>
-      </c>
-      <c r="G328" s="1">
         <v>94.6</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" s="1" t="s">
         <v>338</v>
       </c>
@@ -9051,15 +8723,14 @@
       <c r="D329" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E329" s="1"/>
+      <c r="E329" s="1">
+        <v>2234</v>
+      </c>
       <c r="F329" s="1">
-        <v>2234</v>
-      </c>
-      <c r="G329" s="1">
         <v>94.3</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="1" t="s">
         <v>339</v>
       </c>
@@ -9072,15 +8743,14 @@
       <c r="D330" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E330" s="1"/>
+      <c r="E330" s="1">
+        <v>2233</v>
+      </c>
       <c r="F330" s="1">
-        <v>2233</v>
-      </c>
-      <c r="G330" s="1">
         <v>94.3</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="1" t="s">
         <v>340</v>
       </c>
@@ -9093,15 +8763,14 @@
       <c r="D331" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E331" s="1"/>
+      <c r="E331" s="1">
+        <v>2235</v>
+      </c>
       <c r="F331" s="1">
-        <v>2235</v>
-      </c>
-      <c r="G331" s="1">
         <v>152.30000000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="1" t="s">
         <v>342</v>
       </c>
@@ -9114,15 +8783,14 @@
       <c r="D332" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E332" s="1"/>
+      <c r="E332" s="1">
+        <v>2258</v>
+      </c>
       <c r="F332" s="1">
-        <v>2258</v>
-      </c>
-      <c r="G332" s="1">
         <v>153.9</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="1" t="s">
         <v>343</v>
       </c>
@@ -9135,15 +8803,14 @@
       <c r="D333" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E333" s="1"/>
+      <c r="E333" s="1">
+        <v>2747</v>
+      </c>
       <c r="F333" s="1">
-        <v>2747</v>
-      </c>
-      <c r="G333" s="1">
         <v>187.2</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" s="1" t="s">
         <v>344</v>
       </c>
@@ -9156,15 +8823,14 @@
       <c r="D334" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E334" s="1"/>
+      <c r="E334" s="1">
+        <v>2754</v>
+      </c>
       <c r="F334" s="1">
-        <v>2754</v>
-      </c>
-      <c r="G334" s="1">
         <v>187.7</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="1" t="s">
         <v>345</v>
       </c>
@@ -9177,15 +8843,14 @@
       <c r="D335" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E335" s="1"/>
+      <c r="E335" s="1">
+        <v>2247</v>
+      </c>
       <c r="F335" s="1">
-        <v>2247</v>
-      </c>
-      <c r="G335" s="1">
         <v>153.1</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" s="1" t="s">
         <v>346</v>
       </c>
@@ -9198,15 +8863,14 @@
       <c r="D336" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E336" s="1"/>
+      <c r="E336" s="1">
+        <v>2253</v>
+      </c>
       <c r="F336" s="1">
-        <v>2253</v>
-      </c>
-      <c r="G336" s="1">
         <v>153.5</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="1" t="s">
         <v>347</v>
       </c>
@@ -9219,15 +8883,14 @@
       <c r="D337" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E337" s="1"/>
+      <c r="E337" s="1">
+        <v>2226</v>
+      </c>
       <c r="F337" s="1">
-        <v>2226</v>
-      </c>
-      <c r="G337" s="1">
         <v>151.69999999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" s="1" t="s">
         <v>348</v>
       </c>
@@ -9240,15 +8903,14 @@
       <c r="D338" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E338" s="1"/>
+      <c r="E338" s="1">
+        <v>2231</v>
+      </c>
       <c r="F338" s="1">
-        <v>2231</v>
-      </c>
-      <c r="G338" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A339" s="1" t="s">
         <v>349</v>
       </c>
@@ -9261,15 +8923,14 @@
       <c r="D339" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E339" s="1"/>
+      <c r="E339" s="1">
+        <v>2235</v>
+      </c>
       <c r="F339" s="1">
-        <v>2235</v>
-      </c>
-      <c r="G339" s="1">
         <v>152.30000000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A340" s="1" t="s">
         <v>350</v>
       </c>
@@ -9282,15 +8943,14 @@
       <c r="D340" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E340" s="1"/>
+      <c r="E340" s="1">
+        <v>2332</v>
+      </c>
       <c r="F340" s="1">
-        <v>2332</v>
-      </c>
-      <c r="G340" s="1">
         <v>158.9</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A341" s="1" t="s">
         <v>351</v>
       </c>
@@ -9303,15 +8963,14 @@
       <c r="D341" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E341" s="1"/>
+      <c r="E341" s="1">
+        <v>2628</v>
+      </c>
       <c r="F341" s="1">
-        <v>2628</v>
-      </c>
-      <c r="G341" s="1">
         <v>179.1</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A342" s="1" t="s">
         <v>352</v>
       </c>
@@ -9324,15 +8983,14 @@
       <c r="D342" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E342" s="1"/>
+      <c r="E342" s="1">
+        <v>2373</v>
+      </c>
       <c r="F342" s="1">
-        <v>2373</v>
-      </c>
-      <c r="G342" s="1">
         <v>161.69999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A343" s="1" t="s">
         <v>353</v>
       </c>
@@ -9345,15 +9003,14 @@
       <c r="D343" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E343" s="1"/>
+      <c r="E343" s="1">
+        <v>2670</v>
+      </c>
       <c r="F343" s="1">
-        <v>2670</v>
-      </c>
-      <c r="G343" s="1">
         <v>181.9</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A344" s="1" t="s">
         <v>354</v>
       </c>
@@ -9366,15 +9023,14 @@
       <c r="D344" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E344" s="1"/>
+      <c r="E344" s="1">
+        <v>2754</v>
+      </c>
       <c r="F344" s="1">
-        <v>2754</v>
-      </c>
-      <c r="G344" s="1">
         <v>187.7</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A345" s="1" t="s">
         <v>355</v>
       </c>
@@ -9387,15 +9043,14 @@
       <c r="D345" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E345" s="1"/>
+      <c r="E345" s="1">
+        <v>2754</v>
+      </c>
       <c r="F345" s="1">
-        <v>2754</v>
-      </c>
-      <c r="G345" s="1">
         <v>187.7</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" s="1" t="s">
         <v>356</v>
       </c>
@@ -9408,15 +9063,14 @@
       <c r="D346" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E346" s="1"/>
+      <c r="E346" s="1">
+        <v>2745</v>
+      </c>
       <c r="F346" s="1">
-        <v>2745</v>
-      </c>
-      <c r="G346" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" s="1" t="s">
         <v>357</v>
       </c>
@@ -9429,15 +9083,14 @@
       <c r="D347" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E347" s="1"/>
+      <c r="E347" s="1">
+        <v>2747</v>
+      </c>
       <c r="F347" s="1">
-        <v>2747</v>
-      </c>
-      <c r="G347" s="1">
         <v>187.2</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A348" s="1" t="s">
         <v>358</v>
       </c>
@@ -9450,15 +9103,14 @@
       <c r="D348" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E348" s="1"/>
+      <c r="E348" s="1">
+        <v>2739</v>
+      </c>
       <c r="F348" s="1">
-        <v>2739</v>
-      </c>
-      <c r="G348" s="1">
         <v>186.6</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A349" s="1" t="s">
         <v>359</v>
       </c>
@@ -9471,15 +9123,14 @@
       <c r="D349" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E349" s="1"/>
+      <c r="E349" s="1">
+        <v>2255</v>
+      </c>
       <c r="F349" s="1">
-        <v>2255</v>
-      </c>
-      <c r="G349" s="1">
         <v>153.69999999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A350" s="1" t="s">
         <v>360</v>
       </c>
@@ -9492,15 +9143,14 @@
       <c r="D350" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E350" s="1"/>
+      <c r="E350" s="1">
+        <v>2250</v>
+      </c>
       <c r="F350" s="1">
-        <v>2250</v>
-      </c>
-      <c r="G350" s="1">
         <v>153.30000000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A351" s="1" t="s">
         <v>361</v>
       </c>
@@ -9513,15 +9163,14 @@
       <c r="D351" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E351" s="1"/>
+      <c r="E351" s="1">
+        <v>2238</v>
+      </c>
       <c r="F351" s="1">
-        <v>2238</v>
-      </c>
-      <c r="G351" s="1">
         <v>152.5</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A352" s="1" t="s">
         <v>362</v>
       </c>
@@ -9534,15 +9183,14 @@
       <c r="D352" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E352" s="1"/>
+      <c r="E352" s="1">
+        <v>2246</v>
+      </c>
       <c r="F352" s="1">
-        <v>2246</v>
-      </c>
-      <c r="G352" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A353" s="1" t="s">
         <v>363</v>
       </c>
@@ -9555,15 +9203,14 @@
       <c r="D353" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E353" s="1"/>
+      <c r="E353" s="1">
+        <v>2733</v>
+      </c>
       <c r="F353" s="1">
-        <v>2733</v>
-      </c>
-      <c r="G353" s="1">
         <v>186.2</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A354" s="1" t="s">
         <v>364</v>
       </c>
@@ -9576,15 +9223,14 @@
       <c r="D354" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E354" s="1"/>
+      <c r="E354" s="1">
+        <v>2765</v>
+      </c>
       <c r="F354" s="1">
-        <v>2765</v>
-      </c>
-      <c r="G354" s="1">
         <v>188.4</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A355" s="1" t="s">
         <v>365</v>
       </c>
@@ -9597,15 +9243,14 @@
       <c r="D355" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E355" s="1"/>
+      <c r="E355" s="1">
+        <v>2754</v>
+      </c>
       <c r="F355" s="1">
-        <v>2754</v>
-      </c>
-      <c r="G355" s="1">
         <v>187.7</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A356" s="1" t="s">
         <v>366</v>
       </c>
@@ -9618,15 +9263,14 @@
       <c r="D356" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E356" s="1"/>
+      <c r="E356" s="1">
+        <v>2754</v>
+      </c>
       <c r="F356" s="1">
-        <v>2754</v>
-      </c>
-      <c r="G356" s="1">
         <v>187.7</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A357" s="1" t="s">
         <v>367</v>
       </c>
@@ -9639,15 +9283,14 @@
       <c r="D357" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E357" s="1"/>
+      <c r="E357" s="1">
+        <v>2495</v>
+      </c>
       <c r="F357" s="1">
-        <v>2495</v>
-      </c>
-      <c r="G357" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A358" s="1" t="s">
         <v>368</v>
       </c>
@@ -9660,15 +9303,14 @@
       <c r="D358" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E358" s="1"/>
+      <c r="E358" s="1">
+        <v>2515</v>
+      </c>
       <c r="F358" s="1">
-        <v>2515</v>
-      </c>
-      <c r="G358" s="1">
         <v>171.4</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A359" s="1" t="s">
         <v>369</v>
       </c>
@@ -9681,15 +9323,14 @@
       <c r="D359" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E359" s="1"/>
+      <c r="E359" s="1">
+        <v>2515</v>
+      </c>
       <c r="F359" s="1">
-        <v>2515</v>
-      </c>
-      <c r="G359" s="1">
         <v>171.4</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A360" s="1" t="s">
         <v>370</v>
       </c>
@@ -9702,15 +9343,14 @@
       <c r="D360" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E360" s="1"/>
+      <c r="E360" s="1">
+        <v>2539</v>
+      </c>
       <c r="F360" s="1">
-        <v>2539</v>
-      </c>
-      <c r="G360" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A361" s="1" t="s">
         <v>371</v>
       </c>
@@ -9723,15 +9363,14 @@
       <c r="D361" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E361" s="1"/>
+      <c r="E361" s="1">
+        <v>800</v>
+      </c>
       <c r="F361" s="1">
-        <v>800</v>
-      </c>
-      <c r="G361" s="1">
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A362" s="1" t="s">
         <v>372</v>
       </c>
@@ -9744,15 +9383,14 @@
       <c r="D362" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E362" s="1"/>
+      <c r="E362" s="1">
+        <v>100</v>
+      </c>
       <c r="F362" s="1">
-        <v>100</v>
-      </c>
-      <c r="G362" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A363" s="1" t="s">
         <v>374</v>
       </c>
@@ -9765,15 +9403,14 @@
       <c r="D363" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E363" s="1"/>
+      <c r="E363" s="1">
+        <v>283</v>
+      </c>
       <c r="F363" s="1">
-        <v>283</v>
-      </c>
-      <c r="G363" s="1">
         <v>3.2</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A364" s="1" t="s">
         <v>376</v>
       </c>
@@ -9786,15 +9423,14 @@
       <c r="D364" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E364" s="1"/>
+      <c r="E364" s="1">
+        <v>250</v>
+      </c>
       <c r="F364" s="1">
-        <v>250</v>
-      </c>
-      <c r="G364" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A365" s="1" t="s">
         <v>377</v>
       </c>
@@ -9807,15 +9443,14 @@
       <c r="D365" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E365" s="1"/>
+      <c r="E365" s="1">
+        <v>283</v>
+      </c>
       <c r="F365" s="1">
-        <v>283</v>
-      </c>
-      <c r="G365" s="1">
         <v>3.4</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A366" s="1" t="s">
         <v>379</v>
       </c>
@@ -9828,15 +9463,14 @@
       <c r="D366" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E366" s="1"/>
+      <c r="E366" s="1">
+        <v>200</v>
+      </c>
       <c r="F366" s="1">
-        <v>200</v>
-      </c>
-      <c r="G366" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A367" s="1" t="s">
         <v>381</v>
       </c>
@@ -9849,15 +9483,14 @@
       <c r="D367" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E367" s="1"/>
+      <c r="E367" s="1">
+        <v>130</v>
+      </c>
       <c r="F367" s="1">
-        <v>130</v>
-      </c>
-      <c r="G367" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A368" s="1" t="s">
         <v>383</v>
       </c>
@@ -9870,15 +9503,14 @@
       <c r="D368" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E368" s="1"/>
+      <c r="E368" s="1">
+        <v>130</v>
+      </c>
       <c r="F368" s="1">
-        <v>130</v>
-      </c>
-      <c r="G368" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A369" s="1" t="s">
         <v>385</v>
       </c>
@@ -9891,15 +9523,14 @@
       <c r="D369" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E369" s="1"/>
+      <c r="E369" s="1">
+        <v>130</v>
+      </c>
       <c r="F369" s="1">
-        <v>130</v>
-      </c>
-      <c r="G369" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A370" s="1" t="s">
         <v>386</v>
       </c>
@@ -9912,15 +9543,14 @@
       <c r="D370" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E370" s="1"/>
+      <c r="E370" s="1">
+        <v>100</v>
+      </c>
       <c r="F370" s="1">
-        <v>100</v>
-      </c>
-      <c r="G370" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A371" s="1" t="s">
         <v>387</v>
       </c>
@@ -9933,15 +9563,14 @@
       <c r="D371" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E371" s="1"/>
+      <c r="E371" s="1">
+        <v>100</v>
+      </c>
       <c r="F371" s="1">
-        <v>100</v>
-      </c>
-      <c r="G371" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A372" s="1" t="s">
         <v>389</v>
       </c>
@@ -9954,15 +9583,14 @@
       <c r="D372" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E372" s="1"/>
+      <c r="E372" s="1">
+        <v>373</v>
+      </c>
       <c r="F372" s="1">
-        <v>373</v>
-      </c>
-      <c r="G372" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A373" s="1" t="s">
         <v>390</v>
       </c>
@@ -9975,15 +9603,14 @@
       <c r="D373" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E373" s="1"/>
+      <c r="E373" s="1">
+        <v>225</v>
+      </c>
       <c r="F373" s="1">
-        <v>225</v>
-      </c>
-      <c r="G373" s="1">
         <v>2.7</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A374" s="1" t="s">
         <v>392</v>
       </c>
@@ -9996,15 +9623,14 @@
       <c r="D374" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E374" s="1"/>
+      <c r="E374" s="1">
+        <v>220</v>
+      </c>
       <c r="F374" s="1">
-        <v>220</v>
-      </c>
-      <c r="G374" s="1">
         <v>1.2</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A375" s="1" t="s">
         <v>394</v>
       </c>
@@ -10017,15 +9643,14 @@
       <c r="D375" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E375" s="1"/>
+      <c r="E375" s="1">
+        <v>320</v>
+      </c>
       <c r="F375" s="1">
-        <v>320</v>
-      </c>
-      <c r="G375" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A376" s="1" t="s">
         <v>396</v>
       </c>
@@ -10038,15 +9663,14 @@
       <c r="D376" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E376" s="1"/>
+      <c r="E376" s="1">
+        <v>740</v>
+      </c>
       <c r="F376" s="1">
-        <v>740</v>
-      </c>
-      <c r="G376" s="1">
         <v>22.1</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A377" s="1" t="s">
         <v>398</v>
       </c>
@@ -10059,15 +9683,14 @@
       <c r="D377" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E377" s="1"/>
+      <c r="E377" s="1">
+        <v>390</v>
+      </c>
       <c r="F377" s="1">
-        <v>390</v>
-      </c>
-      <c r="G377" s="1">
         <v>20.6</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A378" s="1" t="s">
         <v>400</v>
       </c>
@@ -10080,15 +9703,14 @@
       <c r="D378" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E378" s="1"/>
+      <c r="E378" s="1">
+        <v>320</v>
+      </c>
       <c r="F378" s="1">
-        <v>320</v>
-      </c>
-      <c r="G378" s="1">
         <v>5.2</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A379" s="1" t="s">
         <v>402</v>
       </c>
@@ -10101,15 +9723,14 @@
       <c r="D379" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E379" s="1"/>
+      <c r="E379" s="1">
+        <v>300</v>
+      </c>
       <c r="F379" s="1">
-        <v>300</v>
-      </c>
-      <c r="G379" s="1">
         <v>8.6</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A380" s="1" t="s">
         <v>404</v>
       </c>
@@ -10122,15 +9743,14 @@
       <c r="D380" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E380" s="1"/>
+      <c r="E380" s="1">
+        <v>300</v>
+      </c>
       <c r="F380" s="1">
-        <v>300</v>
-      </c>
-      <c r="G380" s="1">
         <v>7.4</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A381" s="1" t="s">
         <v>406</v>
       </c>
@@ -10143,15 +9763,14 @@
       <c r="D381" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E381" s="1"/>
+      <c r="E381" s="1">
+        <v>280</v>
+      </c>
       <c r="F381" s="1">
-        <v>280</v>
-      </c>
-      <c r="G381" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A382" s="1" t="s">
         <v>408</v>
       </c>
@@ -10164,15 +9783,14 @@
       <c r="D382" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E382" s="1"/>
+      <c r="E382" s="1">
+        <v>420</v>
+      </c>
       <c r="F382" s="1">
-        <v>420</v>
-      </c>
-      <c r="G382" s="1">
         <v>6.9</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A383" s="1" t="s">
         <v>409</v>
       </c>
@@ -10185,15 +9803,14 @@
       <c r="D383" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E383" s="1"/>
+      <c r="E383" s="1">
+        <v>400</v>
+      </c>
       <c r="F383" s="1">
-        <v>400</v>
-      </c>
-      <c r="G383" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A384" s="1" t="s">
         <v>411</v>
       </c>
@@ -10206,15 +9823,14 @@
       <c r="D384" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E384" s="1"/>
+      <c r="E384" s="1">
+        <v>420</v>
+      </c>
       <c r="F384" s="1">
-        <v>420</v>
-      </c>
-      <c r="G384" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A385" s="1" t="s">
         <v>413</v>
       </c>
@@ -10227,15 +9843,14 @@
       <c r="D385" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E385" s="1"/>
+      <c r="E385" s="1">
+        <v>207</v>
+      </c>
       <c r="F385" s="1">
-        <v>207</v>
-      </c>
-      <c r="G385" s="1">
         <v>3.6</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A386" s="1" t="s">
         <v>415</v>
       </c>
@@ -10248,15 +9863,14 @@
       <c r="D386" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E386" s="1"/>
+      <c r="E386" s="1">
+        <v>177</v>
+      </c>
       <c r="F386" s="1">
-        <v>177</v>
-      </c>
-      <c r="G386" s="1">
         <v>3.1</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A387" s="1" t="s">
         <v>416</v>
       </c>
@@ -10269,15 +9883,14 @@
       <c r="D387" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E387" s="1"/>
+      <c r="E387" s="1">
+        <v>170</v>
+      </c>
       <c r="F387" s="1">
-        <v>170</v>
-      </c>
-      <c r="G387" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A388" s="1" t="s">
         <v>418</v>
       </c>
@@ -10290,15 +9903,14 @@
       <c r="D388" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E388" s="1"/>
+      <c r="E388" s="1">
+        <v>130</v>
+      </c>
       <c r="F388" s="1">
-        <v>130</v>
-      </c>
-      <c r="G388" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A389" s="1" t="s">
         <v>419</v>
       </c>
@@ -10311,15 +9923,14 @@
       <c r="D389" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E389" s="1"/>
+      <c r="E389" s="1">
+        <v>424</v>
+      </c>
       <c r="F389" s="1">
-        <v>424</v>
-      </c>
-      <c r="G389" s="1">
         <v>8.4</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A390" s="1" t="s">
         <v>421</v>
       </c>
@@ -10332,15 +9943,14 @@
       <c r="D390" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E390" s="1"/>
+      <c r="E390" s="1">
+        <v>300</v>
+      </c>
       <c r="F390" s="1">
-        <v>300</v>
-      </c>
-      <c r="G390" s="1">
         <v>9.9</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A391" s="1" t="s">
         <v>423</v>
       </c>
@@ -10353,15 +9963,14 @@
       <c r="D391" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E391" s="1"/>
+      <c r="E391" s="1">
+        <v>160</v>
+      </c>
       <c r="F391" s="1">
-        <v>160</v>
-      </c>
-      <c r="G391" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A392" s="1" t="s">
         <v>425</v>
       </c>
@@ -10374,15 +9983,14 @@
       <c r="D392" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E392" s="1"/>
+      <c r="E392" s="1">
+        <v>222</v>
+      </c>
       <c r="F392" s="1">
-        <v>222</v>
-      </c>
-      <c r="G392" s="1">
         <v>3.9</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A393" s="1" t="s">
         <v>426</v>
       </c>
@@ -10395,11 +10003,10 @@
       <c r="D393" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E393" s="1"/>
+      <c r="E393" s="1">
+        <v>100</v>
+      </c>
       <c r="F393" s="1">
-        <v>100</v>
-      </c>
-      <c r="G393" s="1">
         <v>0.6</v>
       </c>
     </row>
